--- a/Card_Database.xlsx
+++ b/Card_Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Starter" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,9 +13,10 @@
     <sheet name="Ironclad" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Mesmer" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Event" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Treasure" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Relic" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Ironclad_Classic" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Monster" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Treasure" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Relic" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Ironclad_Classic" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="354">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -644,10 +645,241 @@
     <t xml:space="preserve">Rest. Heal 5 HP.</t>
   </si>
   <si>
+    <t xml:space="preserve">Max_HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roll_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roll_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roll_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roll_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roll_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roll_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Squidman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 3 damage to ALL enemies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add 2 wounds to the top of each deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 5 damage to ALL enemies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gremlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply 3 vulnerable to ALL enemies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spectre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 1 HP every time an enemy loses HP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL enemies lose 1 HP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 6 block.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green Ghouls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start combat with 3 copies of this creature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 5 block.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All allies gain 1 strength.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floating Orb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starts combat with 10 block. Block does not expire at the end of turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 6 damage to ALL enemies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 10 block.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 1 strength at the start of each turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 1 damage to ALL enemies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 8 block.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mimick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the start of each turn, consume 1 gold from each player.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 3 block. Apply 1 vulnerable to ALL enemies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goblins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start combat with 2 copies of this creature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 2 damage to a player.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove all block from all enemies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Elemental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each player may play a maximum of 4 cards each turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damage 5 damage to a player.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damage 3 damage to a player. Add 2 burns to ALL enemies discard pile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth Elemental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 5 damage to a player. Add 2 dazed to player's discard pile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant Scorpion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 3 block at the start of each turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A player loses 1 HP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a wound to the top of each player's deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creature of the Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first time HP is lost, gain 5 strength.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double current strength.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spider Queen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawns a spider with 5 HP at the start of each turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All spiders deal 2 damage to a player.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawns two spiders with 5 HP each.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All spiders gain 3 HP and 1 strength.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abyssal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 8 damage to a player. Remove all block from player.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 3 damage to a player. Add a wound to the top of each player's deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block does not expire at the end of turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 4 block. Remove all block, and deal damage to a player equal to block removed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Beast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 1 strength each turn. If this creature has 3 strength, remove all block and deal 5 damage to ALL enemies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Summoner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summon a basic monster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL allies gain 2 strength.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove all conditions and Illusions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Rift Walker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lose all strength on attack. Gain 1 strength each time a card is played.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 1 damage to an enemy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 4 strength.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove all conditions. Remove block from ALL enemies.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Experience</t>
   </si>
   <si>
-    <t xml:space="preserve">Draw 3 cards character cards. You can add 1 to your deck.</t>
+    <t xml:space="preserve">Draw 3 character cards. You may add 1 to your deck.</t>
   </si>
   <si>
     <t xml:space="preserve">Coins</t>
@@ -867,12 +1099,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -890,35 +1121,162 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -926,8 +1284,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -951,13 +1324,64 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -965,11 +1389,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -977,23 +1401,120 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2477,7 +2998,7 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2796,10 +3317,767 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="25.01"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="27.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="6" width="22.08"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2821,23 +4099,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="2" t="n">
+    <row r="2" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="11" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>208</v>
+        <v>285</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>15</v>
@@ -2845,10 +4123,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>210</v>
+        <v>287</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>10</v>
@@ -2856,10 +4134,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>211</v>
+        <v>288</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5</v>
@@ -2867,10 +4145,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2</v>
@@ -2878,10 +4156,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>215</v>
+        <v>292</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>216</v>
+        <v>293</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2</v>
@@ -2889,10 +4167,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>217</v>
+        <v>294</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>218</v>
+        <v>295</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2</v>
@@ -2900,10 +4178,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>219</v>
+        <v>296</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2</v>
@@ -2911,10 +4189,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2</v>
@@ -2931,7 +4209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2963,10 +4241,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>224</v>
+        <v>301</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
@@ -2974,10 +4252,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>225</v>
+        <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>226</v>
+        <v>303</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
@@ -2985,10 +4263,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>227</v>
+        <v>304</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>228</v>
+        <v>305</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
@@ -2996,10 +4274,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
@@ -3007,10 +4285,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -3018,10 +4296,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>234</v>
+        <v>311</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -3029,10 +4307,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>236</v>
+        <v>313</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -3040,10 +4318,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>238</v>
+        <v>315</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -3051,10 +4329,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>239</v>
+        <v>316</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -3062,10 +4340,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>241</v>
+        <v>318</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -3073,10 +4351,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>243</v>
+        <v>320</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>244</v>
+        <v>321</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -3084,10 +4362,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>246</v>
+        <v>323</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -3095,10 +4373,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>247</v>
+        <v>324</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>248</v>
+        <v>325</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -3106,10 +4384,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>249</v>
+        <v>326</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>250</v>
+        <v>327</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -3117,10 +4395,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>252</v>
+        <v>329</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -3128,10 +4406,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>253</v>
+        <v>330</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>254</v>
+        <v>331</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -3139,10 +4417,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>255</v>
+        <v>332</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>256</v>
+        <v>333</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -3150,10 +4428,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>257</v>
+        <v>334</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -3161,10 +4439,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>259</v>
+        <v>336</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>260</v>
+        <v>337</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1</v>
@@ -3172,10 +4450,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>261</v>
+        <v>338</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>262</v>
+        <v>339</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1</v>
@@ -3183,10 +4461,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>263</v>
+        <v>340</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>264</v>
+        <v>341</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1</v>
@@ -3194,10 +4472,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>265</v>
+        <v>342</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>266</v>
+        <v>343</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1</v>
@@ -3205,10 +4483,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>268</v>
+        <v>345</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1</v>
@@ -3216,10 +4494,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>269</v>
+        <v>346</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1</v>
@@ -3227,10 +4505,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>271</v>
+        <v>348</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>272</v>
+        <v>349</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1</v>
@@ -3238,10 +4516,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1</v>
@@ -3249,10 +4527,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>275</v>
+        <v>352</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>276</v>
+        <v>353</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1</v>
@@ -3269,7 +4547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>

--- a/Card_Database.xlsx
+++ b/Card_Database.xlsx
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Spike Trap</t>
   </si>
   <si>
-    <t xml:space="preserve">When attacked next, remove all block from attacker and deal 2 damage.</t>
+    <t xml:space="preserve">When attacked next, remove all block from attacker.</t>
   </si>
   <si>
     <t xml:space="preserve">Shatter Illusions</t>
@@ -1430,7 +1430,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="1" sqref="F19 F21"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1520,7 +1520,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="1" sqref="F19 F22"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1550,7 +1550,7 @@
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="F19 E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1751,7 +1751,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="1" sqref="F19 B26"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2342,7 +2342,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2350,7 +2350,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="74.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="74.27"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2639,7 +2639,7 @@
         <v>100</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>117</v>
@@ -2664,7 +2664,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="F19 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3255,7 +3255,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="F19 B11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3576,7 +3576,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="F19 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4365,7 +4365,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="F19 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4505,7 +4505,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="1" sqref="F19 B32"/>
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Card_Database.xlsx
+++ b/Card_Database.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="389">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -316,16 +316,25 @@
     <t xml:space="preserve">Apply 1 poison.</t>
   </si>
   <si>
-    <t xml:space="preserve">Epidemic</t>
-  </si>
-  <si>
     <t xml:space="preserve">All enemies</t>
   </si>
   <si>
+    <t xml:space="preserve">Poison Trap?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every trap that triggers this turn applies 1 poison.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scavenge</t>
   </si>
   <si>
     <t xml:space="preserve">Move an exhausted Trap to your hand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This turn, all traps trigger twice.</t>
   </si>
   <si>
     <t xml:space="preserve">Barbed Trap</t>
@@ -2339,10 +2348,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2435,79 +2444,50 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="F5" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>50</v>
@@ -2516,78 +2496,38 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
@@ -2596,38 +2536,38 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>40</v>
@@ -2636,13 +2576,113 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F21" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
         <v>117</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2738,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
@@ -2713,12 +2753,12 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
@@ -2733,12 +2773,12 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -2753,12 +2793,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
@@ -2773,12 +2813,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>40</v>
@@ -2793,12 +2833,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>40</v>
@@ -2813,12 +2853,12 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>50</v>
@@ -2833,12 +2873,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>50</v>
@@ -2853,12 +2893,12 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>50</v>
@@ -2873,12 +2913,12 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>50</v>
@@ -2893,12 +2933,12 @@
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>31</v>
@@ -2913,12 +2953,12 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>31</v>
@@ -2938,7 +2978,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>31</v>
@@ -2953,12 +2993,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>40</v>
@@ -2973,12 +3013,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
@@ -2993,12 +3033,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>40</v>
@@ -3013,12 +3053,12 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>40</v>
@@ -3033,12 +3073,12 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
@@ -3053,12 +3093,12 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>31</v>
@@ -3067,18 +3107,18 @@
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>31</v>
@@ -3087,18 +3127,18 @@
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
@@ -3107,18 +3147,18 @@
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>40</v>
@@ -3127,18 +3167,18 @@
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>40</v>
@@ -3147,18 +3187,18 @@
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>40</v>
@@ -3167,18 +3207,18 @@
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
@@ -3187,18 +3227,18 @@
         <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>50</v>
@@ -3207,18 +3247,18 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>50</v>
@@ -3227,13 +3267,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3280,281 +3320,281 @@
         <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3603,39 +3643,39 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
@@ -3644,45 +3684,45 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>2</v>
@@ -3697,21 +3737,21 @@
         <v>34</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
@@ -3720,36 +3760,36 @@
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
@@ -3758,7 +3798,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>2</v>
@@ -3773,21 +3813,21 @@
         <v>34</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -3796,36 +3836,36 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -3834,36 +3874,36 @@
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -3872,36 +3912,36 @@
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -3910,36 +3950,36 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -3948,36 +3988,36 @@
         <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -3986,36 +4026,36 @@
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -4024,36 +4064,36 @@
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -4062,36 +4102,36 @@
         <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -4100,36 +4140,36 @@
         <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -4138,36 +4178,36 @@
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -4176,36 +4216,36 @@
         <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -4214,25 +4254,25 @@
         <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>82</v>
@@ -4240,10 +4280,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -4252,36 +4292,36 @@
         <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -4290,33 +4330,33 @@
         <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -4332,7 +4372,7 @@
     </row>
     <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -4389,10 +4429,10 @@
     </row>
     <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>40</v>
@@ -4400,10 +4440,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>15</v>
@@ -4411,10 +4451,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>10</v>
@@ -4422,10 +4462,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5</v>
@@ -4433,10 +4473,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2</v>
@@ -4444,10 +4484,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2</v>
@@ -4455,10 +4495,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2</v>
@@ -4466,10 +4506,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2</v>
@@ -4477,10 +4517,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2</v>
@@ -4529,10 +4569,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
@@ -4540,10 +4580,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
@@ -4551,10 +4591,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
@@ -4562,10 +4602,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
@@ -4573,10 +4613,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -4584,10 +4624,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -4595,10 +4635,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -4606,10 +4646,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -4617,10 +4657,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -4628,10 +4668,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -4639,10 +4679,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -4650,10 +4690,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -4661,10 +4701,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -4672,10 +4712,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -4683,10 +4723,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -4694,10 +4734,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -4705,10 +4745,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -4716,10 +4756,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -4727,10 +4767,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1</v>
@@ -4738,10 +4778,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1</v>
@@ -4749,10 +4789,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1</v>
@@ -4760,10 +4800,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1</v>
@@ -4771,10 +4811,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1</v>
@@ -4782,10 +4822,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1</v>
@@ -4793,10 +4833,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1</v>
@@ -4804,10 +4844,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1</v>
@@ -4815,10 +4855,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1</v>

--- a/Card_Database.xlsx
+++ b/Card_Database.xlsx
@@ -5,19 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Starter" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Generic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Ironclad" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Trapper" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Mesmer" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Event" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Monster" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Treasure" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Relic" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Ironclad_Classic" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Gunslinger" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Trapper" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Mesmer" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Character" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Event" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Monster" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Treasure" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Relic" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Ironclad_Classic" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="399">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -154,7 +156,7 @@
     <t xml:space="preserve">Uncommon</t>
   </si>
   <si>
-    <t xml:space="preserve">Deal 1 damage. Strength affects Bash 2 times.</t>
+    <t xml:space="preserve">Deal damage equal to three times your strength.</t>
   </si>
   <si>
     <t xml:space="preserve">Hemokinesis</t>
@@ -298,6 +300,21 @@
     <t xml:space="preserve">Block no longer expires at the end of your turn.</t>
   </si>
   <si>
+    <t xml:space="preserve">Shoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use one ammo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use all ammo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ammo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Evicerate</t>
   </si>
   <si>
@@ -316,10 +333,13 @@
     <t xml:space="preserve">Apply 1 poison.</t>
   </si>
   <si>
-    <t xml:space="preserve">All enemies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poison Trap?</t>
+    <t xml:space="preserve">Enfeeble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This turn, target deals X less attack damage, where X is the number of poison stacks on enemy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snake Venom</t>
   </si>
   <si>
     <t xml:space="preserve">Every trap that triggers this turn applies 1 poison.</t>
@@ -355,7 +375,7 @@
     <t xml:space="preserve">Snare</t>
   </si>
   <si>
-    <t xml:space="preserve">When attacked next, deal 1 damage to attacker. If this kills, gain 1 additional treasure at the end of combat.</t>
+    <t xml:space="preserve">When attacked next, deal 2 damage to attacker. If this kills, gain 1 additional treasure at the end of combat.</t>
   </si>
   <si>
     <t xml:space="preserve">Healing Spring</t>
@@ -505,7 +525,7 @@
     <t xml:space="preserve">Illusion</t>
   </si>
   <si>
-    <t xml:space="preserve">Does nothing.</t>
+    <t xml:space="preserve">When applied, caster draws 1 card.</t>
   </si>
   <si>
     <t xml:space="preserve">Worry</t>
@@ -556,6 +576,27 @@
     <t xml:space="preserve">Illusions applied to target cost 1 less energy.</t>
   </si>
   <si>
+    <t xml:space="preserve">Offense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ironclad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mesmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Trapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Gunslinger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Option_1</t>
   </si>
   <si>
@@ -778,21 +819,15 @@
     <t xml:space="preserve">None</t>
   </si>
   <si>
+    <t xml:space="preserve">Deal 5 damage to roller.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deal 3 damage to ALL enemies.</t>
   </si>
   <si>
-    <t xml:space="preserve">Add 2 wounds to the top of each deck.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deal 5 damage to ALL enemies.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gremlin</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apply 3 vulnerable to ALL enemies.</t>
   </si>
   <si>
@@ -824,9 +859,6 @@
   </si>
   <si>
     <t xml:space="preserve">Starts combat with 10 block. Block does not expire at the end of turn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deal 6 damage to ALL enemies.</t>
   </si>
   <si>
     <t xml:space="preserve">Gain 10 block.</t>
@@ -1302,7 +1334,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1349,6 +1381,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1438,7 +1474,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1526,9 +1562,487 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="92.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="92.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1558,7 +2072,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1759,8 +2273,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1883,7 +2397,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>2</v>
@@ -2348,10 +2862,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2359,7 +2873,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="74.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="90.66"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2383,55 +2897,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -2440,249 +2934,26 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F5" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="2" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="2" t="n">
+      <c r="D7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>120</v>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2701,10 +2972,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2712,7 +2983,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="65.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="90.66"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2738,7 +3009,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
@@ -2747,38 +3018,38 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -2787,358 +3058,218 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
@@ -3147,38 +3278,38 @@
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>40</v>
@@ -3187,93 +3318,13 @@
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3292,9 +3343,704 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="65.69"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3320,1210 +4066,281 @@
         <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L21"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="25.01"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="27.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="9" width="22.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" s="12" t="s">
         <v>249</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-    </row>
-    <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="92.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4542,18 +4359,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="92.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="8.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="40.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="27.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="9" width="22.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4561,316 +4383,762 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>1</v>
+      <c r="D1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>338</v>
+        <v>264</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>340</v>
+        <v>266</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>1</v>
+      <c r="D4" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>344</v>
+        <v>274</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>346</v>
+        <v>277</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>348</v>
+        <v>281</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>350</v>
+        <v>284</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>352</v>
+        <v>288</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>354</v>
+        <v>292</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>356</v>
+        <v>294</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>358</v>
+        <v>298</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>360</v>
+        <v>302</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>362</v>
+        <v>307</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>364</v>
+        <v>310</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>366</v>
+        <v>313</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>368</v>
+        <v>316</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>370</v>
+        <v>320</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="D19" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Card_Database.xlsx
+++ b/Card_Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Starter" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="419">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -303,16 +303,76 @@
     <t xml:space="preserve">Shoot</t>
   </si>
   <si>
-    <t xml:space="preserve">Use one ammo.</t>
+    <t xml:space="preserve">Use one ammo. Draw a card.</t>
   </si>
   <si>
     <t xml:space="preserve">Unload</t>
   </si>
   <si>
-    <t xml:space="preserve">Use all ammo.</t>
+    <t xml:space="preserve">Use all ammo. Deal 1 damage for each ammo consumed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burst Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use up to 3 ammo. Gain 1 energy for each ammo consumed.</t>
   </si>
   <si>
     <t xml:space="preserve">Ammo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piercing Round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This target all enemies this turn. Deal 1 damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver Bullet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enemy deals no damage this turn. Exhaust when consumed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hollow Point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 4 damage if there is no ammo stored after this attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosive Round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The next attack against enemy this turn deals double damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incendiary Round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This attack deals double damage. Exhaust when consumed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buckshot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 2 damage for each ammo remaining when consumed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take Cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 2 block. Block does not deplete at the end of this turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load any ammo found in your discard pile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smoke Grenade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All allies gain 1 block from attacks this turn.</t>
   </si>
   <si>
     <t xml:space="preserve">Evicerate</t>
@@ -1589,10 +1649,10 @@
     </row>
     <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>40</v>
@@ -1600,10 +1660,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>15</v>
@@ -1611,10 +1671,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>10</v>
@@ -1622,10 +1682,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5</v>
@@ -1633,10 +1693,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2</v>
@@ -1644,10 +1704,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2</v>
@@ -1655,10 +1715,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2</v>
@@ -1666,10 +1726,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2</v>
@@ -1677,10 +1737,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2</v>
@@ -1704,8 +1764,8 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1729,10 +1789,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
@@ -1740,10 +1800,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
@@ -1751,10 +1811,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
@@ -1762,10 +1822,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
@@ -1773,10 +1833,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -1784,10 +1844,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -1795,10 +1855,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -1806,10 +1866,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -1817,10 +1877,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -1828,10 +1888,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -1839,10 +1899,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -1850,10 +1910,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -1861,10 +1921,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -1872,10 +1932,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -1883,10 +1943,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -1894,10 +1954,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -1905,10 +1965,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -1916,10 +1976,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -1927,10 +1987,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1</v>
@@ -1938,10 +1998,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1</v>
@@ -1949,10 +2009,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1</v>
@@ -1960,10 +2020,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1</v>
@@ -1971,10 +2031,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1</v>
@@ -1982,10 +2042,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1</v>
@@ -1993,10 +2053,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1</v>
@@ -2004,10 +2064,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1</v>
@@ -2015,10 +2075,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1</v>
@@ -2862,10 +2922,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2922,19 +2982,39 @@
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2942,18 +3022,209 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3009,7 +3280,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
@@ -3024,12 +3295,12 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>40</v>
@@ -3044,12 +3315,12 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -3064,12 +3335,12 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>40</v>
@@ -3084,12 +3355,12 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>40</v>
@@ -3104,12 +3375,12 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>40</v>
@@ -3124,12 +3395,12 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>50</v>
@@ -3144,12 +3415,12 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
@@ -3158,18 +3429,18 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
@@ -3178,18 +3449,18 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>50</v>
@@ -3198,18 +3469,18 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>40</v>
@@ -3218,18 +3489,18 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>50</v>
@@ -3238,18 +3509,18 @@
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>40</v>
@@ -3258,18 +3529,18 @@
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
@@ -3278,18 +3549,18 @@
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>31</v>
@@ -3298,18 +3569,18 @@
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>40</v>
@@ -3318,13 +3589,13 @@
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3380,7 +3651,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
@@ -3395,12 +3666,12 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
@@ -3415,12 +3686,12 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -3435,12 +3706,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
@@ -3455,12 +3726,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>40</v>
@@ -3475,12 +3746,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>40</v>
@@ -3495,12 +3766,12 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>50</v>
@@ -3515,12 +3786,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>50</v>
@@ -3535,12 +3806,12 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>50</v>
@@ -3555,12 +3826,12 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>50</v>
@@ -3575,12 +3846,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>31</v>
@@ -3595,12 +3866,12 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>31</v>
@@ -3620,7 +3891,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>31</v>
@@ -3635,12 +3906,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>40</v>
@@ -3655,12 +3926,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
@@ -3675,12 +3946,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>40</v>
@@ -3695,12 +3966,12 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>40</v>
@@ -3715,12 +3986,12 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
@@ -3735,12 +4006,12 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>31</v>
@@ -3749,18 +4020,18 @@
         <v>8</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>31</v>
@@ -3769,18 +4040,18 @@
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
@@ -3789,18 +4060,18 @@
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>40</v>
@@ -3809,18 +4080,18 @@
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>40</v>
@@ -3829,18 +4100,18 @@
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>40</v>
@@ -3849,18 +4120,18 @@
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
@@ -3869,18 +4140,18 @@
         <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>50</v>
@@ -3889,18 +4160,18 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>50</v>
@@ -3909,13 +4180,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3951,13 +4222,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -3968,7 +4239,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>4</v>
@@ -3982,7 +4253,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
@@ -3996,7 +4267,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
@@ -4010,7 +4281,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
@@ -4066,281 +4337,281 @@
         <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -4368,7 +4639,7 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="8.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="40.15"/>
@@ -4389,39 +4660,39 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>1</v>
@@ -4430,36 +4701,36 @@
         <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
@@ -4468,7 +4739,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>2</v>
@@ -4483,21 +4754,21 @@
         <v>34</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
@@ -4506,36 +4777,36 @@
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>1</v>
@@ -4544,7 +4815,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>2</v>
@@ -4559,21 +4830,21 @@
         <v>34</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -4582,36 +4853,36 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -4620,36 +4891,36 @@
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -4658,36 +4929,36 @@
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -4696,36 +4967,36 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -4734,36 +5005,36 @@
         <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -4772,36 +5043,36 @@
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -4810,36 +5081,36 @@
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -4848,36 +5119,36 @@
         <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -4886,36 +5157,36 @@
         <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -4924,36 +5195,36 @@
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -4962,36 +5233,36 @@
         <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -5000,25 +5271,25 @@
         <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="L17" s="13" t="s">
         <v>82</v>
@@ -5026,10 +5297,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -5038,36 +5309,36 @@
         <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -5076,33 +5347,33 @@
         <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -5118,7 +5389,7 @@
     </row>
     <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>

--- a/Card_Database.xlsx
+++ b/Card_Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Starter" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,13 +13,14 @@
     <sheet name="Ironclad" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Gunslinger" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Trapper" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Mesmer" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Character" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Event" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Monster" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Treasure" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Relic" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Ironclad_Classic" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Sheet13" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Mesmer" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Character" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Event" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Monster" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Treasure" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Relic" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Ironclad_Classic" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="473">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -321,6 +322,15 @@
     <t xml:space="preserve">Ammo</t>
   </si>
   <si>
+    <t xml:space="preserve">Iron Bullet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copper Bullet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 1 damage. Draw a card when consumed.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piercing Round</t>
   </si>
   <si>
@@ -357,6 +367,12 @@
     <t xml:space="preserve">Deal 2 damage for each ammo remaining when consumed.</t>
   </si>
   <si>
+    <t xml:space="preserve">Heavy Bullet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 6 damage.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Take Cover</t>
   </si>
   <si>
@@ -366,13 +382,19 @@
     <t xml:space="preserve">Reload</t>
   </si>
   <si>
-    <t xml:space="preserve">Load any ammo found in your discard pile.</t>
+    <t xml:space="preserve">Load any one ammo found in your discard pile.</t>
   </si>
   <si>
     <t xml:space="preserve">Smoke Grenade</t>
   </si>
   <si>
-    <t xml:space="preserve">All allies gain 1 block from attacks this turn.</t>
+    <t xml:space="preserve">All allies gain 1 block.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desperation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All ammo now costs 0. When an ammo is consumed, exhaust it instead.</t>
   </si>
   <si>
     <t xml:space="preserve">Evicerate</t>
@@ -472,6 +494,147 @@
   </si>
   <si>
     <t xml:space="preserve">When attacked next, remove all block from attacker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantra of Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantra of Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draw 1 card.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantra of Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block does not expire this turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantra of Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 1 energy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Storm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 2 damage to ALL enemies for each fire mantra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flame Burst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 3 damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hellfire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 10 damage to ALL enemies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your next attack this turn deals double damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This turn, attacks deal 1 additional damage for each fire mantra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chain Lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For each air mantra, deal 2 damage to any enemy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draw a card for each air mantra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blinding Flash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next enemy attack has damage reduced to 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invigorate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target player’s next skill costs 0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All enemies do not roll die this turn. Exhaust.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 3 damage X times.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obsidian Flesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incoming damage is reduced to 1 this turn. Exhaust.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unearth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return exhausted card to its owner’s hand. Exhaust.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armor of Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target gains 2 block for each earth mantra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earthen Shackles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target loses all block.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjure Frost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This turn, strike deals 1 additional damage for each water mantra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Prison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enemy cannot take damage and does not roll dice this turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frost Armor</t>
   </si>
   <si>
     <t xml:space="preserve">Shatter Illusions</t>
@@ -1622,6 +1785,795 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="8.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="40.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="27.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="9" width="22.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1649,10 +2601,10 @@
     </row>
     <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>40</v>
@@ -1660,10 +2612,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>349</v>
+        <v>403</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>350</v>
+        <v>404</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>15</v>
@@ -1671,10 +2623,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>351</v>
+        <v>405</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>10</v>
@@ -1682,10 +2634,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5</v>
@@ -1693,10 +2645,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2</v>
@@ -1704,10 +2656,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2</v>
@@ -1715,10 +2667,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2</v>
@@ -1726,10 +2678,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2</v>
@@ -1737,10 +2689,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2</v>
@@ -1757,7 +2709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1789,10 +2741,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
@@ -1800,10 +2752,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
@@ -1811,10 +2763,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
@@ -1822,10 +2774,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
@@ -1833,10 +2785,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -1844,10 +2796,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -1855,10 +2807,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -1866,10 +2818,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -1877,10 +2829,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -1888,10 +2840,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -1899,10 +2851,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -1910,10 +2862,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -1921,10 +2873,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -1932,10 +2884,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -1943,10 +2895,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>394</v>
+        <v>448</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -1954,10 +2906,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>395</v>
+        <v>449</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>396</v>
+        <v>450</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -1965,10 +2917,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>398</v>
+        <v>452</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -1976,10 +2928,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>399</v>
+        <v>453</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -1987,10 +2939,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1</v>
@@ -1998,10 +2950,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1</v>
@@ -2009,10 +2961,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>405</v>
+        <v>459</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1</v>
@@ -2020,10 +2972,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1</v>
@@ -2031,10 +2983,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>409</v>
+        <v>463</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>410</v>
+        <v>464</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1</v>
@@ -2042,10 +2994,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1</v>
@@ -2053,10 +3005,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1</v>
@@ -2064,10 +3016,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1</v>
@@ -2075,10 +3027,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1</v>
@@ -2095,7 +3047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2922,10 +3874,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2997,97 +3949,77 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="C6" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>97</v>
+      <c r="E9" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>95</v>
@@ -3096,12 +4028,12 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>40</v>
@@ -3116,32 +4048,32 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>40</v>
@@ -3153,78 +4085,170 @@
         <v>95</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>0</v>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="E22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="E23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C24" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>113</v>
+      <c r="E24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3280,7 +4304,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
@@ -3295,12 +4319,12 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>40</v>
@@ -3315,12 +4339,12 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -3335,12 +4359,12 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>40</v>
@@ -3355,12 +4379,12 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>40</v>
@@ -3375,12 +4399,12 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>40</v>
@@ -3395,12 +4419,12 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>50</v>
@@ -3415,12 +4439,12 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
@@ -3429,18 +4453,18 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
@@ -3449,18 +4473,18 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>50</v>
@@ -3469,18 +4493,18 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>40</v>
@@ -3489,18 +4513,18 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>50</v>
@@ -3509,18 +4533,18 @@
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>40</v>
@@ -3529,18 +4553,18 @@
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
@@ -3549,18 +4573,18 @@
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>31</v>
@@ -3569,18 +4593,18 @@
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>40</v>
@@ -3589,13 +4613,13 @@
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3610,6 +4634,815 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="90.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3651,7 +5484,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
@@ -3666,12 +5499,12 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
@@ -3686,12 +5519,12 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -3706,12 +5539,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
@@ -3726,12 +5559,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>40</v>
@@ -3746,12 +5579,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>40</v>
@@ -3766,12 +5599,12 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>50</v>
@@ -3786,12 +5619,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>50</v>
@@ -3806,12 +5639,12 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>50</v>
@@ -3826,12 +5659,12 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>50</v>
@@ -3846,12 +5679,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>31</v>
@@ -3866,12 +5699,12 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>31</v>
@@ -3891,7 +5724,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>31</v>
@@ -3906,12 +5739,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>40</v>
@@ -3926,12 +5759,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
@@ -3946,12 +5779,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>40</v>
@@ -3966,12 +5799,12 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>40</v>
@@ -3986,12 +5819,12 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
@@ -4006,12 +5839,12 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>31</v>
@@ -4020,18 +5853,18 @@
         <v>8</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>31</v>
@@ -4040,18 +5873,18 @@
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
@@ -4060,18 +5893,18 @@
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>40</v>
@@ -4080,18 +5913,18 @@
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>40</v>
@@ -4100,18 +5933,18 @@
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>40</v>
@@ -4120,18 +5953,18 @@
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
@@ -4140,18 +5973,18 @@
         <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>50</v>
@@ -4160,18 +5993,18 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>50</v>
@@ -4180,13 +6013,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4200,7 +6033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4222,13 +6055,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -4239,7 +6072,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>4</v>
@@ -4253,7 +6086,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
@@ -4267,7 +6100,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
@@ -4281,7 +6114,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
@@ -4304,7 +6137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4337,281 +6170,281 @@
         <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -4623,793 +6456,4 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L21"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="8.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="40.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="27.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="9" width="22.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Card_Database.xlsx
+++ b/Card_Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Starter" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,7 +13,7 @@
     <sheet name="Ironclad" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Gunslinger" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Trapper" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sheet13" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Elementalist" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Mesmer" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Character" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Event" sheetId="9" state="visible" r:id="rId10"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="483">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -238,22 +238,25 @@
     <t xml:space="preserve">Gain 2 energy. Lose 1 HP.</t>
   </si>
   <si>
+    <t xml:space="preserve">Parry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever you play an Attack, gain 1 block.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrench</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double your block.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rage</t>
   </si>
   <si>
-    <t xml:space="preserve">Whenever you play an Attack, gain 1 block this turn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrench</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double your block.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limit Break</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double your strength.</t>
+    <t xml:space="preserve">Doubles the effect of strength.</t>
   </si>
   <si>
     <t xml:space="preserve">Offering</t>
@@ -262,10 +265,10 @@
     <t xml:space="preserve">Gain 2 energy. Draw 2 cards. Lose 2 HP.</t>
   </si>
   <si>
-    <t xml:space="preserve">Double Tap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This turn, your next Attack is played twice.</t>
+    <t xml:space="preserve">Flurry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your first attack each turn is played twice.</t>
   </si>
   <si>
     <t xml:space="preserve">Impervious</t>
@@ -397,7 +400,7 @@
     <t xml:space="preserve">All ammo now costs 0. When an ammo is consumed, exhaust it instead.</t>
   </si>
   <si>
-    <t xml:space="preserve">Evicerate</t>
+    <t xml:space="preserve">Decompose</t>
   </si>
   <si>
     <t xml:space="preserve">Deal damage equal to target’s poison.</t>
@@ -421,6 +424,12 @@
     <t xml:space="preserve">This turn, target deals X less attack damage, where X is the number of poison stacks on enemy.</t>
   </si>
   <si>
+    <t xml:space="preserve">Potency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever you apply poison, apply 1 additional stack.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Snake Venom</t>
   </si>
   <si>
@@ -508,25 +517,25 @@
     <t xml:space="preserve">Earth</t>
   </si>
   <si>
-    <t xml:space="preserve">Mantra of Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mantra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mantra of Air</t>
+    <t xml:space="preserve">Signet of Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signet of Air</t>
   </si>
   <si>
     <t xml:space="preserve">Draw 1 card.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mantra of Water</t>
+    <t xml:space="preserve">Signet of Water</t>
   </si>
   <si>
     <t xml:space="preserve">Block does not expire this turn.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mantra of Earth</t>
+    <t xml:space="preserve">Signet of Earth</t>
   </si>
   <si>
     <t xml:space="preserve">Gain 1 energy.</t>
@@ -559,7 +568,7 @@
     <t xml:space="preserve">Cinders</t>
   </si>
   <si>
-    <t xml:space="preserve">This turn, attacks deal 1 additional damage for each fire mantra.</t>
+    <t xml:space="preserve">Attacks deal 1 additional damage for each active fire mantra.</t>
   </si>
   <si>
     <t xml:space="preserve">Chain Lightning</t>
@@ -601,7 +610,7 @@
     <t xml:space="preserve">Obsidian Flesh</t>
   </si>
   <si>
-    <t xml:space="preserve">Incoming damage is reduced to 1 this turn. Exhaust.</t>
+    <t xml:space="preserve">Incoming damage is reduced by 1 (min. 1 damage).</t>
   </si>
   <si>
     <t xml:space="preserve">Unearth</t>
@@ -625,7 +634,7 @@
     <t xml:space="preserve">Conjure Frost</t>
   </si>
   <si>
-    <t xml:space="preserve">This turn, strike deals 1 additional damage for each water mantra.</t>
+    <t xml:space="preserve">This turn, Strikes deals 1 additional damage for each active water mantra.</t>
   </si>
   <si>
     <t xml:space="preserve">Ice Prison</t>
@@ -635,6 +644,27 @@
   </si>
   <si>
     <t xml:space="preserve">Frost Armor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negates the next source of damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tidal Wave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target heal 1 HP. Exhaust.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maelstorm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each time you are attacked, deal 1 damage for each active water mantra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master of Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While attuned to three different elements, all skills cost 0.</t>
   </si>
   <si>
     <t xml:space="preserve">Shatter Illusions</t>
@@ -1815,39 +1845,39 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>1</v>
@@ -1856,36 +1886,36 @@
         <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
@@ -1894,7 +1924,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>2</v>
@@ -1909,21 +1939,21 @@
         <v>34</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
@@ -1932,36 +1962,36 @@
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>1</v>
@@ -1970,7 +2000,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>2</v>
@@ -1985,21 +2015,21 @@
         <v>34</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -2008,36 +2038,36 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -2046,36 +2076,36 @@
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -2084,36 +2114,36 @@
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -2122,36 +2152,36 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -2160,36 +2190,36 @@
         <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -2198,36 +2228,36 @@
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -2236,36 +2266,36 @@
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -2274,36 +2304,36 @@
         <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -2312,36 +2342,36 @@
         <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -2350,36 +2380,36 @@
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -2388,36 +2418,36 @@
         <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -2426,36 +2456,36 @@
         <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -2464,36 +2494,36 @@
         <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -2502,33 +2532,33 @@
         <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -2544,7 +2574,7 @@
     </row>
     <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -2601,10 +2631,10 @@
     </row>
     <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>40</v>
@@ -2612,10 +2642,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>15</v>
@@ -2623,10 +2653,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>10</v>
@@ -2634,10 +2664,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5</v>
@@ -2645,10 +2675,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2</v>
@@ -2656,10 +2686,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2</v>
@@ -2667,10 +2697,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2</v>
@@ -2678,10 +2708,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2</v>
@@ -2689,10 +2719,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2</v>
@@ -2741,10 +2771,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
@@ -2752,10 +2782,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
@@ -2763,10 +2793,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
@@ -2774,10 +2804,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
@@ -2785,10 +2815,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -2796,10 +2826,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -2807,10 +2837,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -2818,10 +2848,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -2829,10 +2859,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -2840,10 +2870,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -2851,10 +2881,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -2862,10 +2892,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -2873,10 +2903,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -2884,10 +2914,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -2895,10 +2925,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -2906,10 +2936,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -2917,10 +2947,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -2928,10 +2958,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -2939,10 +2969,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1</v>
@@ -2950,10 +2980,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1</v>
@@ -2961,10 +2991,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1</v>
@@ -2972,10 +3002,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1</v>
@@ -2983,10 +3013,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1</v>
@@ -2994,10 +3024,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1</v>
@@ -3005,10 +3035,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1</v>
@@ -3016,10 +3046,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1</v>
@@ -3027,10 +3057,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1</v>
@@ -3283,10 +3313,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="G41" activeCellId="0" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3669,18 +3699,18 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>40</v>
@@ -3695,12 +3725,12 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>50</v>
@@ -3709,18 +3739,18 @@
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>50</v>
@@ -3735,12 +3765,12 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>50</v>
@@ -3749,113 +3779,117 @@
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
+      <c r="E25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="6" t="s">
+    </row>
+    <row r="26" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C26" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="E26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="28" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="C28" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="2" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>88</v>
+      <c r="C29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3911,7 +3945,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
@@ -3926,12 +3960,12 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -3946,12 +3980,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>31</v>
@@ -3966,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3974,7 +4008,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -3985,7 +4019,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>1</v>
@@ -3993,7 +4027,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
@@ -4002,7 +4036,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>1</v>
@@ -4013,7 +4047,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>31</v>
@@ -4022,18 +4056,18 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>40</v>
@@ -4042,18 +4076,18 @@
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>50</v>
@@ -4062,18 +4096,18 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>40</v>
@@ -4082,18 +4116,18 @@
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
@@ -4102,18 +4136,18 @@
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>40</v>
@@ -4122,18 +4156,18 @@
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>40</v>
@@ -4142,18 +4176,18 @@
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
@@ -4162,18 +4196,18 @@
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>40</v>
@@ -4188,12 +4222,12 @@
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>40</v>
@@ -4208,12 +4242,12 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>31</v>
@@ -4228,12 +4262,12 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>40</v>
@@ -4248,7 +4282,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4270,7 +4304,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4304,7 +4338,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
@@ -4319,12 +4353,12 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>40</v>
@@ -4339,12 +4373,12 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -4359,12 +4393,12 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>40</v>
@@ -4379,12 +4413,32 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>40</v>
@@ -4393,18 +4447,18 @@
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>40</v>
@@ -4419,12 +4473,12 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>50</v>
@@ -4439,12 +4493,12 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
@@ -4453,18 +4507,18 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
@@ -4473,18 +4527,18 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>50</v>
@@ -4493,18 +4547,18 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>40</v>
@@ -4513,18 +4567,18 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>50</v>
@@ -4533,18 +4587,18 @@
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>40</v>
@@ -4553,18 +4607,18 @@
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
@@ -4573,18 +4627,18 @@
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>31</v>
@@ -4593,18 +4647,18 @@
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>40</v>
@@ -4613,13 +4667,13 @@
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4638,10 +4692,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4667,16 +4721,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>3</v>
@@ -4687,7 +4741,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
@@ -4695,8 +4749,8 @@
       <c r="C2" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>159</v>
+      <c r="D2" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -4719,7 +4773,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
@@ -4728,7 +4782,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>0</v>
@@ -4746,12 +4800,12 @@
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -4760,7 +4814,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0</v>
@@ -4778,12 +4832,12 @@
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
@@ -4792,7 +4846,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E5" s="8" t="n">
         <v>0</v>
@@ -4810,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4826,13 +4880,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>8</v>
@@ -4853,18 +4907,18 @@
         <v>1</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>8</v>
@@ -4885,12 +4939,12 @@
         <v>1</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>50</v>
@@ -4914,15 +4968,15 @@
         <v>0</v>
       </c>
       <c r="I9" s="8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>40</v>
@@ -4949,12 +5003,12 @@
         <v>0</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>40</v>
@@ -4963,7 +5017,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="E11" s="8" t="n">
         <v>1</v>
@@ -4978,10 +5032,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4996,28 +5050,49 @@
       <c r="J12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="A13" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E14" s="8" t="n">
         <v>0</v>
@@ -5032,21 +5107,21 @@
         <v>0</v>
       </c>
       <c r="I14" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C15" s="8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>11</v>
@@ -5055,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="8" t="n">
         <v>0</v>
@@ -5064,15 +5139,15 @@
         <v>0</v>
       </c>
       <c r="I15" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>40</v>
@@ -5099,107 +5174,128 @@
         <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C20" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C21" s="8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E21" s="8" t="n">
         <v>0</v>
@@ -5211,24 +5307,24 @@
         <v>0</v>
       </c>
       <c r="H21" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C22" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>11</v>
@@ -5243,24 +5339,24 @@
         <v>0</v>
       </c>
       <c r="H22" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C23" s="8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>11</v>
@@ -5275,50 +5371,29 @@
         <v>0</v>
       </c>
       <c r="H23" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>193</v>
-      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>40</v>
@@ -5336,70 +5411,91 @@
         <v>0</v>
       </c>
       <c r="G25" s="8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="A26" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>197</v>
+        <v>203</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
@@ -5411,24 +5507,80 @@
         <v>0</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -5449,8 +5601,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5484,7 +5636,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
@@ -5499,12 +5651,12 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
@@ -5519,12 +5671,12 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -5539,12 +5691,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
@@ -5559,12 +5711,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>40</v>
@@ -5579,12 +5731,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>40</v>
@@ -5599,12 +5751,12 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>50</v>
@@ -5619,12 +5771,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>50</v>
@@ -5639,12 +5791,12 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>50</v>
@@ -5659,12 +5811,12 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>50</v>
@@ -5679,12 +5831,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>31</v>
@@ -5699,12 +5851,12 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>31</v>
@@ -5724,7 +5876,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>31</v>
@@ -5739,12 +5891,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>40</v>
@@ -5759,12 +5911,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
@@ -5779,12 +5931,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>40</v>
@@ -5799,12 +5951,12 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>40</v>
@@ -5819,12 +5971,12 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
@@ -5839,12 +5991,12 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>31</v>
@@ -5853,18 +6005,18 @@
         <v>8</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>31</v>
@@ -5873,18 +6025,18 @@
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
@@ -5893,18 +6045,18 @@
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>40</v>
@@ -5913,18 +6065,18 @@
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>40</v>
@@ -5933,18 +6085,18 @@
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>40</v>
@@ -5953,18 +6105,18 @@
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
@@ -5973,18 +6125,18 @@
         <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>50</v>
@@ -5993,18 +6145,18 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>50</v>
@@ -6013,13 +6165,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -6055,13 +6207,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -6072,7 +6224,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>4</v>
@@ -6086,7 +6238,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
@@ -6100,7 +6252,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
@@ -6114,7 +6266,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
@@ -6170,281 +6322,281 @@
         <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/Card_Database.xlsx
+++ b/Card_Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Starter" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="488">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -520,7 +520,7 @@
     <t xml:space="preserve">Signet of Fire</t>
   </si>
   <si>
-    <t xml:space="preserve">Signet</t>
+    <t xml:space="preserve">Sigil</t>
   </si>
   <si>
     <t xml:space="preserve">Signet of Air</t>
@@ -610,7 +610,7 @@
     <t xml:space="preserve">Obsidian Flesh</t>
   </si>
   <si>
-    <t xml:space="preserve">Incoming damage is reduced by 1 (min. 1 damage).</t>
+    <t xml:space="preserve">At the start of your turn, gain 1 block for each earth mantra.</t>
   </si>
   <si>
     <t xml:space="preserve">Unearth</t>
@@ -652,7 +652,7 @@
     <t xml:space="preserve">Tidal Wave</t>
   </si>
   <si>
-    <t xml:space="preserve">Target heal 1 HP. Exhaust.</t>
+    <t xml:space="preserve">Target heals 1 HP. Exhaust.</t>
   </si>
   <si>
     <t xml:space="preserve">Maelstorm</t>
@@ -664,7 +664,13 @@
     <t xml:space="preserve">Master of Magic</t>
   </si>
   <si>
-    <t xml:space="preserve">While attuned to three different elements, all skills cost 0.</t>
+    <t xml:space="preserve">While attuned to three different elements, you can play all single signet cards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever a signet is drawn, exhaust it and draw a card.</t>
   </si>
   <si>
     <t xml:space="preserve">Shatter Illusions</t>
@@ -829,6 +835,9 @@
     <t xml:space="preserve">Illusions applied to target cost 1 less energy.</t>
   </si>
   <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">Offense</t>
   </si>
   <si>
@@ -1348,7 +1357,7 @@
     <t xml:space="preserve">Lantern</t>
   </si>
   <si>
-    <t xml:space="preserve">Gain 1 energy at the first turn of each combat.</t>
+    <t xml:space="preserve">Gain 1 energy on the first turn of each combat.</t>
   </si>
   <si>
     <t xml:space="preserve">Bottled Flame</t>
@@ -1456,7 +1465,7 @@
     <t xml:space="preserve">Matryoshka</t>
   </si>
   <si>
-    <t xml:space="preserve">The next two chests you open contain two relics.</t>
+    <t xml:space="preserve">Next time you finish a combat, double the treasure you obtain.</t>
   </si>
   <si>
     <t xml:space="preserve">Omamori</t>
@@ -1481,6 +1490,12 @@
   </si>
   <si>
     <t xml:space="preserve">Each combat, ignore the first time HP would be lost.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elemental Tome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before each combat, you may put a signet from your deck in play.</t>
   </si>
 </sst>
 </file>
@@ -1845,39 +1860,39 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>1</v>
@@ -1886,36 +1901,36 @@
         <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
@@ -1924,7 +1939,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>2</v>
@@ -1939,21 +1954,21 @@
         <v>34</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
@@ -1962,36 +1977,36 @@
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>1</v>
@@ -2000,7 +2015,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>2</v>
@@ -2015,21 +2030,21 @@
         <v>34</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -2038,36 +2053,36 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -2076,36 +2091,36 @@
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -2114,36 +2129,36 @@
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>363</v>
-      </c>
       <c r="H8" s="13" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -2152,36 +2167,36 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -2190,36 +2205,36 @@
         <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -2228,36 +2243,36 @@
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -2266,36 +2281,36 @@
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -2304,36 +2319,36 @@
         <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -2342,36 +2357,36 @@
         <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -2380,36 +2395,36 @@
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -2418,36 +2433,36 @@
         <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -2456,25 +2471,25 @@
         <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L17" s="13" t="s">
         <v>83</v>
@@ -2482,10 +2497,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -2494,36 +2509,36 @@
         <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -2532,33 +2547,33 @@
         <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -2574,7 +2589,7 @@
     </row>
     <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -2631,10 +2646,10 @@
     </row>
     <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>40</v>
@@ -2642,10 +2657,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>15</v>
@@ -2653,10 +2668,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>10</v>
@@ -2664,10 +2679,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5</v>
@@ -2675,10 +2690,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2</v>
@@ -2686,10 +2701,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2</v>
@@ -2697,10 +2712,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2</v>
@@ -2708,10 +2723,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2</v>
@@ -2719,10 +2734,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2</v>
@@ -2744,10 +2759,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2771,10 +2786,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
@@ -2782,10 +2797,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
@@ -2793,10 +2808,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
@@ -2804,10 +2819,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
@@ -2815,10 +2830,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -2826,10 +2841,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -2837,10 +2852,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -2848,10 +2863,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -2859,10 +2874,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -2870,10 +2885,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -2881,10 +2896,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -2892,10 +2907,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -2903,10 +2918,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -2914,10 +2929,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -2925,10 +2940,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -2936,10 +2951,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -2947,10 +2962,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -2958,10 +2973,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -2969,10 +2984,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1</v>
@@ -2980,10 +2995,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1</v>
@@ -2991,10 +3006,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1</v>
@@ -3002,10 +3017,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1</v>
@@ -3013,10 +3028,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1</v>
@@ -3024,10 +3039,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1</v>
@@ -3035,10 +3050,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1</v>
@@ -3046,10 +3061,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1</v>
@@ -3057,12 +3072,23 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C28" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C29" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4692,10 +4718,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5203,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>188</v>
@@ -5581,6 +5607,38 @@
       </c>
       <c r="J31" s="2" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5599,10 +5657,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5610,7 +5668,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="65.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="76.69"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -5636,7 +5694,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
@@ -5651,12 +5709,12 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
@@ -5671,12 +5729,12 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -5691,12 +5749,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
@@ -5711,12 +5769,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>40</v>
@@ -5731,12 +5789,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>40</v>
@@ -5751,12 +5809,12 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>50</v>
@@ -5771,12 +5829,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>50</v>
@@ -5791,12 +5849,12 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>50</v>
@@ -5811,12 +5869,12 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>50</v>
@@ -5831,12 +5889,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>31</v>
@@ -5851,12 +5909,12 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>31</v>
@@ -5876,7 +5934,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>31</v>
@@ -5891,12 +5949,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>40</v>
@@ -5911,12 +5969,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
@@ -5931,12 +5989,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>40</v>
@@ -5951,12 +6009,12 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>40</v>
@@ -5971,12 +6029,12 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
@@ -5991,12 +6049,12 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>31</v>
@@ -6005,18 +6063,18 @@
         <v>8</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>31</v>
@@ -6025,18 +6083,18 @@
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
@@ -6045,18 +6103,18 @@
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>40</v>
@@ -6065,18 +6123,18 @@
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>40</v>
@@ -6085,18 +6143,18 @@
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>40</v>
@@ -6105,18 +6163,18 @@
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
@@ -6125,18 +6183,18 @@
         <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>50</v>
@@ -6145,18 +6203,18 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>50</v>
@@ -6165,13 +6223,16 @@
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -6207,13 +6268,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -6224,7 +6285,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>4</v>
@@ -6238,7 +6299,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
@@ -6252,7 +6313,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
@@ -6266,7 +6327,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
@@ -6322,281 +6383,281 @@
         <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>297</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/Card_Database.xlsx
+++ b/Card_Database.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="504">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -415,13 +415,55 @@
     <t xml:space="preserve">Poison Dagger</t>
   </si>
   <si>
-    <t xml:space="preserve">Apply 1 poison.</t>
+    <t xml:space="preserve">Deal 1 damage and apply 1 poison.</t>
   </si>
   <si>
     <t xml:space="preserve">Enfeeble</t>
   </si>
   <si>
-    <t xml:space="preserve">This turn, target deals X less attack damage, where X is the number of poison stacks on enemy.</t>
+    <t xml:space="preserve">Remove 1 poison from enemy. Gain 4 block.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 3 block.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dodge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 2 block. Draw a card.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 1 block. Draw a card.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalyst X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target gains 1 strength and loses 1 HP for each poison stack. Exhaust.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer all poison from one target to another. Exhaust.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxic Cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All allies and enemies gain 2 stack of poison.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noxious Fumes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the start of your turn, all enemies gain 1 stack of poison.</t>
   </si>
   <si>
     <t xml:space="preserve">Potency</t>
@@ -433,7 +475,7 @@
     <t xml:space="preserve">Snake Venom</t>
   </si>
   <si>
-    <t xml:space="preserve">Every trap that triggers this turn applies 1 poison.</t>
+    <t xml:space="preserve">Every trap also applies 1 poison.</t>
   </si>
   <si>
     <t xml:space="preserve">Scavenge</t>
@@ -442,7 +484,7 @@
     <t xml:space="preserve">Move an exhausted Trap to your hand.</t>
   </si>
   <si>
-    <t xml:space="preserve">Preparedness</t>
+    <t xml:space="preserve">Craftsmanship</t>
   </si>
   <si>
     <t xml:space="preserve">This turn, all traps trigger twice.</t>
@@ -454,7 +496,7 @@
     <t xml:space="preserve">Trap</t>
   </si>
   <si>
-    <t xml:space="preserve">When attacked next, deal 4 damage to attacker.</t>
+    <t xml:space="preserve">When attacked next, deal 3 damage to attacker.</t>
   </si>
   <si>
     <t xml:space="preserve">Dust Trap</t>
@@ -472,7 +514,7 @@
     <t xml:space="preserve">Healing Spring</t>
   </si>
   <si>
-    <t xml:space="preserve">When attacked next, gain 2 HP.</t>
+    <t xml:space="preserve">When attacked next, defender gains 2 HP.</t>
   </si>
   <si>
     <t xml:space="preserve">Smoke Trap</t>
@@ -496,7 +538,7 @@
     <t xml:space="preserve">Tripwire</t>
   </si>
   <si>
-    <t xml:space="preserve">When attacked next, reduce damage by 2.</t>
+    <t xml:space="preserve">When attacked next, reduce damage by 1.</t>
   </si>
   <si>
     <t xml:space="preserve">Spike Trap</t>
@@ -652,7 +694,7 @@
     <t xml:space="preserve">Tidal Wave</t>
   </si>
   <si>
-    <t xml:space="preserve">Target heals 1 HP. Exhaust.</t>
+    <t xml:space="preserve">Remove all poison from target and heals 1 HP. Exhaust.</t>
   </si>
   <si>
     <t xml:space="preserve">Maelstorm</t>
@@ -1372,6 +1414,12 @@
     <t xml:space="preserve">At the start of each combat, put any Skill from your deck into your hand.</t>
   </si>
   <si>
+    <t xml:space="preserve">Bottled Tornado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the start of each combat, put any Power from your deck into your hand.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shuriken</t>
   </si>
   <si>
@@ -1459,7 +1507,7 @@
     <t xml:space="preserve">Maurader's Map</t>
   </si>
   <si>
-    <t xml:space="preserve">When you enter a new level, you can swap the contents of two rooms.</t>
+    <t xml:space="preserve">When you start a new stage, you can swap the contents of two rooms.</t>
   </si>
   <si>
     <t xml:space="preserve">Matryoshka</t>
@@ -1742,7 +1790,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1832,7 +1880,7 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1860,39 +1908,39 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>1</v>
@@ -1901,36 +1949,36 @@
         <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
@@ -1939,7 +1987,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>2</v>
@@ -1954,21 +2002,21 @@
         <v>34</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
@@ -1977,36 +2025,36 @@
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>1</v>
@@ -2015,7 +2063,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>2</v>
@@ -2030,21 +2078,21 @@
         <v>34</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -2053,36 +2101,36 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -2091,36 +2139,36 @@
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -2129,36 +2177,36 @@
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -2167,36 +2215,36 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -2205,36 +2253,36 @@
         <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -2243,36 +2291,36 @@
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -2281,36 +2329,36 @@
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -2319,36 +2367,36 @@
         <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -2357,36 +2405,36 @@
         <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -2395,36 +2443,36 @@
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -2433,36 +2481,36 @@
         <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -2471,25 +2519,25 @@
         <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="L17" s="13" t="s">
         <v>83</v>
@@ -2497,10 +2545,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -2509,36 +2557,36 @@
         <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -2547,33 +2595,33 @@
         <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -2589,7 +2637,7 @@
     </row>
     <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -2621,7 +2669,7 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2646,10 +2694,10 @@
     </row>
     <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>40</v>
@@ -2657,10 +2705,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>15</v>
@@ -2668,10 +2716,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>10</v>
@@ -2679,10 +2727,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5</v>
@@ -2690,10 +2738,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2</v>
@@ -2701,10 +2749,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2</v>
@@ -2712,10 +2760,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2</v>
@@ -2723,10 +2771,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2</v>
@@ -2734,10 +2782,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2</v>
@@ -2759,10 +2807,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2784,45 +2832,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>446</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>448</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C4" s="2" t="n">
+        <v>450</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
@@ -2830,10 +2878,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -2841,10 +2889,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -2852,10 +2900,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -2863,10 +2911,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -2874,10 +2922,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -2885,10 +2933,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -2896,10 +2944,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -2907,10 +2955,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -2918,10 +2966,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -2929,10 +2977,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -2940,10 +2988,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -2951,10 +2999,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -2962,10 +3010,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -2973,10 +3021,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -2984,10 +3032,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1</v>
@@ -2995,10 +3043,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1</v>
@@ -3006,10 +3054,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1</v>
@@ -3017,10 +3065,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1</v>
@@ -3028,10 +3076,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1</v>
@@ -3039,10 +3087,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1</v>
@@ -3050,10 +3098,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1</v>
@@ -3061,10 +3109,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1</v>
@@ -3072,10 +3120,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1</v>
@@ -3083,12 +3131,23 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="C29" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C30" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3110,7 +3169,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -3140,7 +3199,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -3339,10 +3398,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G41" activeCellId="0" sqref="G41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3465,7 +3524,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>2</v>
@@ -3916,6 +3975,12 @@
       </c>
       <c r="F29" s="2" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="2" t="n">
+        <f aca="false">SUM(C2:C29)</f>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3936,8 +4001,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4327,10 +4392,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4422,29 +4487,69 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C7" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>40</v>
@@ -4453,52 +4558,12 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4522,69 +4587,109 @@
         <v>137</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>40</v>
@@ -4593,18 +4698,18 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>50</v>
@@ -4613,58 +4718,18 @@
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>31</v>
@@ -4673,7 +4738,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>1</v>
@@ -4687,19 +4752,159 @@
         <v>155</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4720,8 +4925,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4747,16 +4952,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>3</v>
@@ -4767,7 +4972,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
@@ -4776,7 +4981,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -4799,7 +5004,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
@@ -4808,7 +5013,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>0</v>
@@ -4826,12 +5031,12 @@
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -4840,7 +5045,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0</v>
@@ -4858,12 +5063,12 @@
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
@@ -4872,7 +5077,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E5" s="8" t="n">
         <v>0</v>
@@ -4890,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4906,7 +5111,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>31</v>
@@ -4933,12 +5138,12 @@
         <v>1</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>31</v>
@@ -4965,12 +5170,12 @@
         <v>1</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>50</v>
@@ -4997,12 +5202,12 @@
         <v>2</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>40</v>
@@ -5029,12 +5234,12 @@
         <v>0</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>40</v>
@@ -5061,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5077,7 +5282,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>31</v>
@@ -5104,12 +5309,12 @@
         <v>1</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>31</v>
@@ -5136,12 +5341,12 @@
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>40</v>
@@ -5168,12 +5373,12 @@
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>40</v>
@@ -5200,12 +5405,12 @@
         <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>50</v>
@@ -5232,7 +5437,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5248,7 +5453,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>31</v>
@@ -5275,12 +5480,12 @@
         <v>45</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>40</v>
@@ -5307,12 +5512,12 @@
         <v>1</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>50</v>
@@ -5339,12 +5544,12 @@
         <v>1</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>31</v>
@@ -5371,12 +5576,12 @@
         <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>40</v>
@@ -5403,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5419,7 +5624,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>40</v>
@@ -5446,12 +5651,12 @@
         <v>1</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>50</v>
@@ -5478,12 +5683,12 @@
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>40</v>
@@ -5510,12 +5715,12 @@
         <v>2</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>31</v>
@@ -5542,12 +5747,12 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>31</v>
@@ -5574,12 +5779,12 @@
         <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>40</v>
@@ -5606,12 +5811,12 @@
         <v>1</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>40</v>
@@ -5638,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5659,8 +5864,8 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5694,7 +5899,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
@@ -5709,12 +5914,12 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
@@ -5729,12 +5934,12 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -5749,12 +5954,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
@@ -5769,12 +5974,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>40</v>
@@ -5789,12 +5994,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>40</v>
@@ -5809,12 +6014,12 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>50</v>
@@ -5829,12 +6034,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>50</v>
@@ -5849,12 +6054,12 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>50</v>
@@ -5869,12 +6074,12 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>50</v>
@@ -5889,12 +6094,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>31</v>
@@ -5909,12 +6114,12 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>31</v>
@@ -5934,7 +6139,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>31</v>
@@ -5949,12 +6154,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>40</v>
@@ -5969,12 +6174,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
@@ -5989,12 +6194,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>40</v>
@@ -6009,12 +6214,12 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>40</v>
@@ -6029,12 +6234,12 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
@@ -6049,12 +6254,12 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>31</v>
@@ -6063,18 +6268,18 @@
         <v>8</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>31</v>
@@ -6083,18 +6288,18 @@
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
@@ -6103,18 +6308,18 @@
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>40</v>
@@ -6123,18 +6328,18 @@
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>40</v>
@@ -6143,18 +6348,18 @@
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>40</v>
@@ -6163,18 +6368,18 @@
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
@@ -6183,18 +6388,18 @@
         <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>50</v>
@@ -6203,18 +6408,18 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>50</v>
@@ -6223,16 +6428,16 @@
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -6253,7 +6458,7 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -6268,13 +6473,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -6285,7 +6490,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>4</v>
@@ -6299,7 +6504,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
@@ -6313,7 +6518,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
@@ -6327,7 +6532,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
@@ -6357,7 +6562,7 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -6383,281 +6588,281 @@
         <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/Card_Database.xlsx
+++ b/Card_Database.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="509">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1375,7 +1375,7 @@
     <t xml:space="preserve">Dumbbell</t>
   </si>
   <si>
-    <t xml:space="preserve">Start combats with +1 strength.</t>
+    <t xml:space="preserve">Start combats with 1 strength.</t>
   </si>
   <si>
     <t xml:space="preserve">Backpack</t>
@@ -1441,13 +1441,13 @@
     <t xml:space="preserve">Letter Opener</t>
   </si>
   <si>
-    <t xml:space="preserve">Every time you play 3 Skills in a single turn, deal 1 damage to ALL enemies.</t>
+    <t xml:space="preserve">Every time you play 3 Skills in a single turn, deal 2 damage to any target.</t>
   </si>
   <si>
     <t xml:space="preserve">Smiling Mask</t>
   </si>
   <si>
-    <t xml:space="preserve">The merchant's card removal cost is only 5 gold now.</t>
+    <t xml:space="preserve">All shop prices are reduced by 2.</t>
   </si>
   <si>
     <t xml:space="preserve">Charon's Ashes</t>
@@ -1459,13 +1459,10 @@
     <t xml:space="preserve">Ginger</t>
   </si>
   <si>
-    <t xml:space="preserve">You can no longer become weak.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ice Cream</t>
   </si>
   <si>
-    <t xml:space="preserve">Energy is now conserved between turns.</t>
+    <t xml:space="preserve">For any combat you enter alone, double rewards.</t>
   </si>
   <si>
     <t xml:space="preserve">Spinning Top</t>
@@ -1543,7 +1540,25 @@
     <t xml:space="preserve">Elemental Tome</t>
   </si>
   <si>
-    <t xml:space="preserve">Before each combat, you may put a signet from your deck in play.</t>
+    <t xml:space="preserve">Before each combat, you may put one sigil from your deck in play.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broken Glasses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each turn, play the top card of your deck for free. Draw one less card.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All damage to allies is multiplied by two and redirected to you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select from 4 cards instead of 3 when you acquire Experience.</t>
   </si>
 </sst>
 </file>
@@ -2669,7 +2684,7 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2807,10 +2822,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2990,19 +3005,16 @@
       <c r="A16" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>475</v>
-      </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -3010,10 +3022,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -3021,10 +3033,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -3032,10 +3044,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1</v>
@@ -3043,10 +3055,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1</v>
@@ -3054,10 +3066,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1</v>
@@ -3065,10 +3077,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1</v>
@@ -3076,10 +3088,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1</v>
@@ -3087,10 +3099,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1</v>
@@ -3098,10 +3110,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1</v>
@@ -3109,10 +3121,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>497</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1</v>
@@ -3120,10 +3132,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1</v>
@@ -3131,10 +3143,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1</v>
@@ -3142,12 +3154,45 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="B31" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C33" s="2" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Card_Database.xlsx
+++ b/Card_Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Starter" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,10 +17,11 @@
     <sheet name="Mesmer" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Character" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Event" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Monster" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Treasure" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Relic" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Ironclad_Classic" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Shop" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Monster" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Treasure" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Relic" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Ironclad_Classic" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="540">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -901,6 +902,9 @@
     <t xml:space="preserve">The Gunslinger</t>
   </si>
   <si>
+    <t xml:space="preserve">The Elementalist</t>
+  </si>
+  <si>
     <t xml:space="preserve">Option_1</t>
   </si>
   <si>
@@ -964,7 +968,7 @@
     <t xml:space="preserve">The Rogue</t>
   </si>
   <si>
-    <t xml:space="preserve">Lose 8 gold. Remove a card from your deck.</t>
+    <t xml:space="preserve">Lose 7 gold. Remove a card from your deck.</t>
   </si>
   <si>
     <t xml:space="preserve">Move on.</t>
@@ -973,7 +977,7 @@
     <t xml:space="preserve">The Scavenger</t>
   </si>
   <si>
-    <t xml:space="preserve">Add a random card to your deck.</t>
+    <t xml:space="preserve">Add two random cards to your deck.</t>
   </si>
   <si>
     <t xml:space="preserve">The Cleric</t>
@@ -985,7 +989,7 @@
     <t xml:space="preserve">Deep Slumber</t>
   </si>
   <si>
-    <t xml:space="preserve">A mysterious monster rests </t>
+    <t xml:space="preserve">A mysterious monster rests against a blue flame.</t>
   </si>
   <si>
     <t xml:space="preserve">Wake it. Fight an elite monster.</t>
@@ -1087,6 +1091,63 @@
     <t xml:space="preserve">Rest. Heal 5 HP.</t>
   </si>
   <si>
+    <t xml:space="preserve">Merchant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draw 3 relics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 gold: Buy a relic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offer gold any number of times.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 gold: +1 treasure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 gold: +2 treasures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 gold: +3 treasures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trainer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draw five Character cards from each present player’s deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 gold: Add a common card to respective deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 gold: Add uncommon card to respective deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 gold: Add rare card to respective deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 gold: a player anywhere on the map receives +1 HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 gold: gain +1 max HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 gold: resurrect a player at your location with 50\% HP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 gold: remove a random card from your deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 gold: remove any card from your deck.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Max_HP</t>
   </si>
   <si>
@@ -1486,13 +1547,13 @@
     <t xml:space="preserve">Ectoplasm</t>
   </si>
   <si>
-    <t xml:space="preserve">Gain 1 energy at the start of each turn. You no longer gain gold from battles.</t>
+    <t xml:space="preserve">Gain 1 energy at the start of each turn. You get 1 less treasure from combats.</t>
   </si>
   <si>
     <t xml:space="preserve">Philosopher's Stone</t>
   </si>
   <si>
-    <t xml:space="preserve">Gain 1 energy at the start of each turn. All enemies start with 2 strength.</t>
+    <t xml:space="preserve">Gain 1 energy at the start of each turn. All enemies start with 1 strength.</t>
   </si>
   <si>
     <t xml:space="preserve">Mark of Pain</t>
@@ -1534,7 +1595,7 @@
     <t xml:space="preserve">Carnival Mask</t>
   </si>
   <si>
-    <t xml:space="preserve">Each combat, ignore the first time HP would be lost.</t>
+    <t xml:space="preserve">Prevent the first time HP would be lost in combat.</t>
   </si>
   <si>
     <t xml:space="preserve">Elemental Tome</t>
@@ -1559,6 +1620,39 @@
   </si>
   <si>
     <t xml:space="preserve">Select from 4 cards instead of 3 when you acquire Experience.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever you enter a camp, gain 2 max HP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever an enemy dies, gain 1 energy and draw a card.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever you play a Power, play a random card from your hand for free.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When selecting a card to add to your deck, you can gain 1 max HP instead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever you play a Power, gain 1 HP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upon pickup, gain 30 gold.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At camp sites, you can remove a card from your deck instead of healing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At camp sites, you gain a relic instead of healing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 1 energy and discard 2 cards at the start of each turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draw 2 cards and lose 1 energy at the start of each turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each turn, you lose 1 HP and all allies gain 1 HP.</t>
   </si>
 </sst>
 </file>
@@ -1893,6 +1987,159 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="92.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="9" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="22.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="9" width="19.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1923,39 +2170,39 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>1</v>
@@ -1964,36 +2211,36 @@
         <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
@@ -2002,7 +2249,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>2</v>
@@ -2017,21 +2264,21 @@
         <v>34</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
@@ -2040,36 +2287,36 @@
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>1</v>
@@ -2078,7 +2325,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>2</v>
@@ -2093,21 +2340,21 @@
         <v>34</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -2116,36 +2363,36 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -2154,36 +2401,36 @@
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -2192,36 +2439,36 @@
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -2230,36 +2477,36 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -2268,36 +2515,36 @@
         <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -2306,36 +2553,36 @@
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -2344,36 +2591,36 @@
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -2382,36 +2629,36 @@
         <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -2420,36 +2667,36 @@
         <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -2458,36 +2705,36 @@
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -2496,36 +2743,36 @@
         <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -2534,25 +2781,25 @@
         <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="L17" s="13" t="s">
         <v>83</v>
@@ -2560,10 +2807,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -2572,36 +2819,36 @@
         <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -2610,33 +2857,33 @@
         <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -2652,7 +2899,7 @@
     </row>
     <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -2677,15 +2924,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2709,10 +2956,10 @@
     </row>
     <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>40</v>
@@ -2720,43 +2967,52 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>15</v>
       </c>
+      <c r="E3" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>10</v>
       </c>
+      <c r="E4" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="E5" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2</v>
@@ -2764,10 +3020,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2</v>
@@ -2775,10 +3031,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2</v>
@@ -2786,10 +3042,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2</v>
@@ -2797,10 +3053,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2</v>
@@ -2817,15 +3073,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2849,10 +3105,10 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>1</v>
@@ -2860,10 +3116,10 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>1</v>
@@ -2871,10 +3127,10 @@
     </row>
     <row r="4" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>1</v>
@@ -2882,10 +3138,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
@@ -2893,10 +3149,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -2904,10 +3160,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -2915,10 +3171,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -2926,10 +3182,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -2937,10 +3193,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -2948,10 +3204,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -2959,10 +3215,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -2970,10 +3226,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -2981,10 +3237,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -2992,10 +3248,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -3003,7 +3259,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -3011,10 +3267,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -3022,10 +3278,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -3033,10 +3289,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -3044,10 +3300,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1</v>
@@ -3055,10 +3311,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1</v>
@@ -3066,10 +3322,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1</v>
@@ -3077,10 +3333,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1</v>
@@ -3088,10 +3344,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1</v>
@@ -3099,10 +3355,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1</v>
@@ -3110,10 +3366,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1</v>
@@ -3121,10 +3377,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1</v>
@@ -3132,10 +3388,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1</v>
@@ -3143,10 +3399,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1</v>
@@ -3154,10 +3410,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1</v>
@@ -3165,10 +3421,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1</v>
@@ -3176,10 +3432,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1</v>
@@ -3187,12 +3443,100 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="C33" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C44" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3207,7 +3551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3245,7 +3589,7 @@
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3443,10 +3787,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4020,12 +4364,6 @@
       </c>
       <c r="F29" s="2" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="2" t="n">
-        <f aca="false">SUM(C2:C29)</f>
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4440,7 +4778,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4666,7 +5004,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>141</v>
@@ -4971,7 +5309,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
+      <selection pane="topLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5910,7 +6248,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6501,15 +6839,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -6587,6 +6925,11 @@
       </c>
       <c r="D5" s="0" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -6608,7 +6951,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6633,281 +6976,281 @@
         <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>312</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/Card_Database.xlsx
+++ b/Card_Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Starter" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="556">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -419,6 +419,12 @@
     <t xml:space="preserve">Deal 1 damage and apply 1 poison.</t>
   </si>
   <si>
+    <t xml:space="preserve">Injection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply X poison to ALL enemies.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enfeeble</t>
   </si>
   <si>
@@ -719,7 +725,7 @@
     <t xml:space="preserve">Shatter Illusions</t>
   </si>
   <si>
-    <t xml:space="preserve">Discard all illusion on target. Deal 2 damage for each illusion discarded.</t>
+    <t xml:space="preserve">Exhaust all illusion on target. Deal 4 damage for each illusion discarded.</t>
   </si>
   <si>
     <t xml:space="preserve">Decoy</t>
@@ -776,6 +782,12 @@
     <t xml:space="preserve">Each illusion is moved to a new target and deals 2 damage.</t>
   </si>
   <si>
+    <t xml:space="preserve">Imagination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draw 5 cards. Apply illusions to target and exhaust all other cards.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mind Stab</t>
   </si>
   <si>
@@ -788,9 +800,6 @@
     <t xml:space="preserve">Evasive Strike</t>
   </si>
   <si>
-    <t xml:space="preserve">Deal 1 damage and gain 1 block.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mind Slash</t>
   </si>
   <si>
@@ -806,7 +815,7 @@
     <t xml:space="preserve">Blurred Frenzy</t>
   </si>
   <si>
-    <t xml:space="preserve">Deal 2 damage for each other Attack played this turn.</t>
+    <t xml:space="preserve">Deal 2 damage for each other Attack you have played this turn.</t>
   </si>
   <si>
     <t xml:space="preserve">Illusionary Leap</t>
@@ -842,6 +851,9 @@
     <t xml:space="preserve">When applied, target gains 1 block.</t>
   </si>
   <si>
+    <t xml:space="preserve">When applied, target gains 3 block.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Humility</t>
   </si>
   <si>
@@ -878,9 +890,6 @@
     <t xml:space="preserve">Illusions applied to target cost 1 less energy.</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
     <t xml:space="preserve">Offense</t>
   </si>
   <si>
@@ -956,13 +965,13 @@
     <t xml:space="preserve">A chest, a grail, and a loaf of bread are spread across the room. Which one do you take from?</t>
   </si>
   <si>
-    <t xml:space="preserve">Chest. Gain 1 treasure</t>
+    <t xml:space="preserve">Chest. Gain 2 treasure</t>
   </si>
   <si>
     <t xml:space="preserve">Chalice. Gain 2 max HP</t>
   </si>
   <si>
-    <t xml:space="preserve">Bread. Heal 5 HP.</t>
+    <t xml:space="preserve">Bread. Heal 6 HP.</t>
   </si>
   <si>
     <t xml:space="preserve">The Rogue</t>
@@ -1601,7 +1610,7 @@
     <t xml:space="preserve">Elemental Tome</t>
   </si>
   <si>
-    <t xml:space="preserve">Before each combat, you may put one sigil from your deck in play.</t>
+    <t xml:space="preserve">Before each combat starts, you may put one sigil from your deck in play.</t>
   </si>
   <si>
     <t xml:space="preserve">Broken Glasses</t>
@@ -1625,6 +1634,9 @@
     <t xml:space="preserve">Whenever you enter a camp, gain 2 max HP.</t>
   </si>
   <si>
+    <t xml:space="preserve">Gremlin Horn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whenever an enemy dies, gain 1 energy and draw a card.</t>
   </si>
   <si>
@@ -1634,25 +1646,61 @@
     <t xml:space="preserve">When selecting a card to add to your deck, you can gain 1 max HP instead.</t>
   </si>
   <si>
+    <t xml:space="preserve">Urn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whenever you play a Power, gain 1 HP.</t>
   </si>
   <si>
-    <t xml:space="preserve">Upon pickup, gain 30 gold.</t>
+    <t xml:space="preserve">Gold Coin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 15 gold and discard this relic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peace Pipe</t>
   </si>
   <si>
     <t xml:space="preserve">At camp sites, you can remove a card from your deck instead of healing.</t>
   </si>
   <si>
+    <t xml:space="preserve">Shovel</t>
+  </si>
+  <si>
     <t xml:space="preserve">At camp sites, you gain a relic instead of healing.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hovering Kite</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gain 1 energy and discard 2 cards at the start of each turn.</t>
   </si>
   <si>
+    <t xml:space="preserve">Textbook</t>
+  </si>
+  <si>
     <t xml:space="preserve">Draw 2 cards and lose 1 energy at the start of each turn.</t>
   </si>
   <si>
+    <t xml:space="preserve">Blood Bag</t>
+  </si>
+  <si>
     <t xml:space="preserve">Each turn, you lose 1 HP and all allies gain 1 HP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timeturner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next time an ally would die, heal them to 50\% HP and discard this relic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frozen Eye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can now view the cards in your draw pile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effect of cards that cost X are increased by 2.</t>
   </si>
 </sst>
 </file>
@@ -1989,8 +2037,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2015,113 +2063,113 @@
         <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -2170,39 +2218,39 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>1</v>
@@ -2211,36 +2259,36 @@
         <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
@@ -2249,7 +2297,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>2</v>
@@ -2264,21 +2312,21 @@
         <v>34</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
@@ -2287,36 +2335,36 @@
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>1</v>
@@ -2325,7 +2373,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>2</v>
@@ -2340,21 +2388,21 @@
         <v>34</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -2363,36 +2411,36 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -2401,36 +2449,36 @@
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -2439,36 +2487,36 @@
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -2477,36 +2525,36 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -2515,36 +2563,36 @@
         <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -2553,36 +2601,36 @@
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -2591,36 +2639,36 @@
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -2629,36 +2677,36 @@
         <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -2667,36 +2715,36 @@
         <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -2705,36 +2753,36 @@
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -2743,36 +2791,36 @@
         <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -2781,25 +2829,25 @@
         <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L17" s="13" t="s">
         <v>83</v>
@@ -2807,10 +2855,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -2819,36 +2867,36 @@
         <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -2857,33 +2905,33 @@
         <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -2899,7 +2947,7 @@
     </row>
     <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -2956,10 +3004,10 @@
     </row>
     <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>40</v>
@@ -2967,10 +3015,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>15</v>
@@ -2981,10 +3029,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>10</v>
@@ -2995,10 +3043,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5</v>
@@ -3009,10 +3057,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2</v>
@@ -3020,10 +3068,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2</v>
@@ -3031,10 +3079,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2</v>
@@ -3042,10 +3090,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2</v>
@@ -3053,10 +3101,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2</v>
@@ -3078,10 +3126,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45"/>
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3105,10 +3153,10 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>1</v>
@@ -3116,10 +3164,10 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>1</v>
@@ -3127,10 +3175,10 @@
     </row>
     <row r="4" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>1</v>
@@ -3138,10 +3186,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
@@ -3149,10 +3197,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -3160,10 +3208,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -3171,10 +3219,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -3182,10 +3230,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -3193,10 +3241,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -3204,10 +3252,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -3215,10 +3263,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -3226,10 +3274,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -3237,10 +3285,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -3248,10 +3296,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -3259,7 +3307,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -3267,10 +3315,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -3278,10 +3326,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -3289,10 +3337,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -3300,10 +3348,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1</v>
@@ -3311,10 +3359,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1</v>
@@ -3322,10 +3370,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1</v>
@@ -3333,10 +3381,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1</v>
@@ -3344,10 +3392,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1</v>
@@ -3355,10 +3403,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1</v>
@@ -3366,10 +3414,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1</v>
@@ -3377,10 +3425,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1</v>
@@ -3388,10 +3436,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1</v>
@@ -3399,10 +3447,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1</v>
@@ -3410,10 +3458,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1</v>
@@ -3421,10 +3469,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1</v>
@@ -3432,10 +3480,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1</v>
@@ -3443,10 +3491,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1</v>
@@ -3454,15 +3502,18 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="2" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>533</v>
+      </c>
       <c r="B35" s="2" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1</v>
@@ -3470,7 +3521,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="2" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1</v>
@@ -3478,66 +3529,111 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="2" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>537</v>
+      </c>
       <c r="B38" s="2" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>539</v>
+      </c>
       <c r="B39" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>541</v>
+      </c>
       <c r="B40" s="2" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>543</v>
+      </c>
       <c r="B41" s="2" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>545</v>
+      </c>
       <c r="B42" s="2" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>547</v>
+      </c>
       <c r="B43" s="2" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>549</v>
+      </c>
       <c r="B44" s="2" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="2" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -3558,8 +3654,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F54" activeCellId="0" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4778,7 +4874,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4870,9 +4966,29 @@
         <v>127</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>40</v>
@@ -4887,12 +5003,12 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>31</v>
@@ -4907,12 +5023,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>31</v>
@@ -4927,12 +5043,12 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>40</v>
@@ -4947,12 +5063,12 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>50</v>
@@ -4967,12 +5083,12 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>31</v>
@@ -4987,12 +5103,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>40</v>
@@ -5007,12 +5123,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
@@ -5027,12 +5143,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>40</v>
@@ -5047,12 +5163,12 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>40</v>
@@ -5067,12 +5183,12 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>40</v>
@@ -5087,12 +5203,12 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>50</v>
@@ -5107,12 +5223,12 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>31</v>
@@ -5121,18 +5237,18 @@
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>31</v>
@@ -5141,18 +5257,18 @@
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>50</v>
@@ -5161,18 +5277,18 @@
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
@@ -5181,18 +5297,18 @@
         <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>50</v>
@@ -5201,18 +5317,18 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>40</v>
@@ -5221,18 +5337,18 @@
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>31</v>
@@ -5241,18 +5357,18 @@
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>31</v>
@@ -5261,18 +5377,18 @@
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>40</v>
@@ -5281,13 +5397,13 @@
         <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5309,7 +5425,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
+      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5335,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>3</v>
@@ -5355,7 +5471,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
@@ -5364,7 +5480,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -5387,7 +5503,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
@@ -5396,7 +5512,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>0</v>
@@ -5414,12 +5530,12 @@
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -5428,7 +5544,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0</v>
@@ -5446,12 +5562,12 @@
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
@@ -5460,7 +5576,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E5" s="8" t="n">
         <v>0</v>
@@ -5478,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5494,7 +5610,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>31</v>
@@ -5521,12 +5637,12 @@
         <v>1</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>31</v>
@@ -5553,12 +5669,12 @@
         <v>1</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>50</v>
@@ -5585,12 +5701,12 @@
         <v>2</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>40</v>
@@ -5617,12 +5733,12 @@
         <v>0</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>40</v>
@@ -5649,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5665,7 +5781,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>31</v>
@@ -5692,12 +5808,12 @@
         <v>1</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>31</v>
@@ -5724,12 +5840,12 @@
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>40</v>
@@ -5756,12 +5872,12 @@
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>40</v>
@@ -5788,12 +5904,12 @@
         <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>50</v>
@@ -5820,7 +5936,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5836,7 +5952,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>31</v>
@@ -5863,12 +5979,12 @@
         <v>45</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>40</v>
@@ -5895,12 +6011,12 @@
         <v>1</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>50</v>
@@ -5927,12 +6043,12 @@
         <v>1</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>31</v>
@@ -5956,15 +6072,15 @@
         <v>1</v>
       </c>
       <c r="I22" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>40</v>
@@ -5991,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6007,7 +6123,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>40</v>
@@ -6034,12 +6150,12 @@
         <v>1</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>50</v>
@@ -6066,12 +6182,12 @@
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>40</v>
@@ -6098,12 +6214,12 @@
         <v>2</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>31</v>
@@ -6130,12 +6246,12 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>31</v>
@@ -6162,12 +6278,12 @@
         <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>40</v>
@@ -6194,12 +6310,12 @@
         <v>1</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>40</v>
@@ -6226,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -6245,10 +6361,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6282,7 +6398,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
@@ -6297,12 +6413,12 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
@@ -6317,12 +6433,12 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -6337,12 +6453,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
@@ -6357,12 +6473,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>40</v>
@@ -6377,12 +6493,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>40</v>
@@ -6397,12 +6513,12 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>50</v>
@@ -6417,12 +6533,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>50</v>
@@ -6437,12 +6553,12 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>50</v>
@@ -6457,12 +6573,12 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>50</v>
@@ -6477,32 +6593,32 @@
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="12" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>31</v>
@@ -6514,15 +6630,15 @@
         <v>8</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>31</v>
@@ -6534,21 +6650,21 @@
         <v>8</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>251</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>8</v>
@@ -6556,13 +6672,10 @@
       <c r="E15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
@@ -6577,12 +6690,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>40</v>
@@ -6597,12 +6710,12 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>40</v>
@@ -6614,75 +6727,75 @@
         <v>8</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B20" s="6" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C21" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="D21" s="6" t="s">
         <v>266</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
@@ -6691,47 +6804,47 @@
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>1</v>
@@ -6751,7 +6864,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>1</v>
@@ -6771,7 +6884,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>1</v>
@@ -6785,16 +6898,16 @@
         <v>277</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>278</v>
@@ -6805,22 +6918,59 @@
         <v>279</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="H28" s="0" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
         <v>281</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -6856,13 +7006,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -6873,7 +7023,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>4</v>
@@ -6887,7 +7037,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
@@ -6901,7 +7051,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
@@ -6915,7 +7065,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
@@ -6929,7 +7079,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -6951,7 +7101,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6976,281 +7126,281 @@
         <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>315</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/Card_Database.xlsx
+++ b/Card_Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Starter" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,6 @@
     <sheet name="Monster" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="Treasure" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="Relic" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Ironclad_Classic" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="568">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -449,10 +448,10 @@
     <t xml:space="preserve">Gain 1 block. Draw a card.</t>
   </si>
   <si>
-    <t xml:space="preserve">Catalyst X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target gains 1 strength and loses 1 HP for each poison stack. Exhaust.</t>
+    <t xml:space="preserve">Catalyst Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target gains 1 strength and loses 1 HP for each poison stack on them. Exhaust.</t>
   </si>
   <si>
     <t xml:space="preserve">Transfect</t>
@@ -938,10 +937,10 @@
     <t xml:space="preserve">The doors lock behind you. An alter with three pedestals covered in blood sits in the center of the room.</t>
   </si>
   <si>
-    <t xml:space="preserve">Lose 3 HP. Gain 1 treasure. Stay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lose 3 HP. Gain 1 max HP. Stay.</t>
+    <t xml:space="preserve">Lose 3 HP. You gain 1 treasure. Stay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lose 3 HP. You gain 1 max HP. Stay.</t>
   </si>
   <si>
     <t xml:space="preserve">Lose 3 HP. Leave.</t>
@@ -977,7 +976,7 @@
     <t xml:space="preserve">The Rogue</t>
   </si>
   <si>
-    <t xml:space="preserve">Lose 7 gold. Remove a card from your deck.</t>
+    <t xml:space="preserve">Lose 7 gold. Remove a card from one deck.</t>
   </si>
   <si>
     <t xml:space="preserve">Move on.</t>
@@ -986,7 +985,7 @@
     <t xml:space="preserve">The Scavenger</t>
   </si>
   <si>
-    <t xml:space="preserve">Add two random cards to your deck.</t>
+    <t xml:space="preserve">Add two random cards to each deck.</t>
   </si>
   <si>
     <t xml:space="preserve">The Cleric</t>
@@ -1079,7 +1078,7 @@
     <t xml:space="preserve">Dark Corridor</t>
   </si>
   <si>
-    <t xml:space="preserve">You find a winding passage. A blue flame torch illuminates the entrance, as the only guiding light.</t>
+    <t xml:space="preserve">You find yourself in a winding passage. A blue flame torch illuminates the entrance, as the only guiding light.</t>
   </si>
   <si>
     <t xml:space="preserve">Find your own way. Teleport to the boss room for the level.</t>
@@ -1088,7 +1087,7 @@
     <t xml:space="preserve">Use the torch. Add a curse to your deck.</t>
   </si>
   <si>
-    <t xml:space="preserve">Library</t>
+    <t xml:space="preserve">Mahogany Library</t>
   </si>
   <si>
     <t xml:space="preserve">A massive library fill the room, with a padded chair in the center.</t>
@@ -1100,6 +1099,36 @@
     <t xml:space="preserve">Rest. Heal 5 HP.</t>
   </si>
   <si>
+    <t xml:space="preserve">Lullaby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listen. Replace each strike in your deck with a random card.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listen. Replace each defend in your deck with a random card.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ominous Forge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forge. Gain 1 relic and add a curse to your deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove a card from your deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divine Fountain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove all curses from your deck.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Merchant</t>
   </si>
   <si>
@@ -1124,16 +1153,16 @@
     <t xml:space="preserve">Trainer</t>
   </si>
   <si>
-    <t xml:space="preserve">Draw five Character cards from each present player’s deck.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 gold: Add a common card to respective deck.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 gold: Add uncommon card to respective deck.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 gold: Add rare card to respective deck.</t>
+    <t xml:space="preserve">Draw five Character cards from each player’s deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 gold: Add a common card to your deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 gold: Add uncommon card to your deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 gold: Add rare card to your deck.</t>
   </si>
   <si>
     <t xml:space="preserve">Healer</t>
@@ -1517,7 +1546,7 @@
     <t xml:space="preserve">Smiling Mask</t>
   </si>
   <si>
-    <t xml:space="preserve">All shop prices are reduced by 2.</t>
+    <t xml:space="preserve">All shop prices are reduced by 2 (minimum 1 gold).</t>
   </si>
   <si>
     <t xml:space="preserve">Charon's Ashes</t>
@@ -1631,6 +1660,9 @@
     <t xml:space="preserve">Select from 4 cards instead of 3 when you acquire Experience.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hammock</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whenever you enter a camp, gain 2 max HP.</t>
   </si>
   <si>
@@ -1640,7 +1672,7 @@
     <t xml:space="preserve">Whenever an enemy dies, gain 1 energy and draw a card.</t>
   </si>
   <si>
-    <t xml:space="preserve">Whenever you play a Power, play a random card from your hand for free.</t>
+    <t xml:space="preserve">Whenever you play a Power, the next card you play costs 0 energy.</t>
   </si>
   <si>
     <t xml:space="preserve">When selecting a card to add to your deck, you can gain 1 max HP instead.</t>
@@ -1698,6 +1730,9 @@
   </si>
   <si>
     <t xml:space="preserve">You can now view the cards in your draw pile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemical X</t>
   </si>
   <si>
     <t xml:space="preserve">Effect of cards that cost X are increased by 2.</t>
@@ -1710,7 +1745,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1751,6 +1786,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -1807,7 +1847,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1852,15 +1892,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1947,7 +1991,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -2037,8 +2081,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2083,16 +2127,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,76 +2144,76 @@
         <v>304</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -2190,7 +2234,7 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -2218,39 +2262,39 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>382</v>
+        <v>386</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>1</v>
@@ -2259,36 +2303,36 @@
         <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>387</v>
+      <c r="G2" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
@@ -2297,36 +2341,36 @@
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>389</v>
+      <c r="J3" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
@@ -2335,36 +2379,36 @@
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>393</v>
+      <c r="G4" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="5" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>394</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>384</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>1</v>
@@ -2373,36 +2417,36 @@
         <v>6</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>397</v>
+      <c r="J5" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -2411,36 +2455,36 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>400</v>
+      <c r="G6" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -2449,36 +2493,36 @@
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>404</v>
+      <c r="G7" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -2487,36 +2531,36 @@
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>407</v>
+      <c r="G8" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -2525,36 +2569,36 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>411</v>
+      <c r="G9" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -2563,36 +2607,36 @@
         <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>415</v>
+      <c r="G10" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -2601,36 +2645,36 @@
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>396</v>
+      <c r="G11" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -2639,36 +2683,36 @@
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>421</v>
+      <c r="G12" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -2677,36 +2721,36 @@
         <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>425</v>
+      <c r="G13" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -2715,36 +2759,36 @@
         <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>430</v>
+      <c r="G14" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -2753,36 +2797,36 @@
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>433</v>
+      <c r="G15" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -2791,36 +2835,36 @@
         <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>436</v>
+      <c r="G16" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -2829,36 +2873,36 @@
         <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="L17" s="13" t="s">
+      <c r="G17" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="L17" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -2867,36 +2911,36 @@
         <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>443</v>
+      <c r="G18" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -2905,61 +2949,61 @@
         <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>448</v>
+      <c r="G19" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
     </row>
     <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2979,7 +3023,7 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -3004,10 +3048,10 @@
     </row>
     <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>40</v>
@@ -3015,10 +3059,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>15</v>
@@ -3029,10 +3073,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>10</v>
@@ -3043,10 +3087,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5</v>
@@ -3057,10 +3101,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2</v>
@@ -3068,10 +3112,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2</v>
@@ -3079,10 +3123,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2</v>
@@ -3090,10 +3134,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2</v>
@@ -3101,10 +3145,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2</v>
@@ -3128,8 +3172,8 @@
   </sheetPr>
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3153,10 +3197,10 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>1</v>
@@ -3164,10 +3208,10 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>1</v>
@@ -3175,10 +3219,10 @@
     </row>
     <row r="4" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>1</v>
@@ -3186,10 +3230,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
@@ -3197,10 +3241,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -3208,10 +3252,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -3219,10 +3263,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -3230,10 +3274,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -3241,10 +3285,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -3252,10 +3296,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -3263,10 +3307,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -3274,10 +3318,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -3285,10 +3329,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -3296,10 +3340,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -3307,7 +3351,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -3315,10 +3359,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -3326,10 +3370,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -3337,10 +3381,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -3348,10 +3392,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1</v>
@@ -3359,10 +3403,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1</v>
@@ -3370,10 +3414,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1</v>
@@ -3381,10 +3425,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1</v>
@@ -3392,10 +3436,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1</v>
@@ -3403,10 +3447,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1</v>
@@ -3414,10 +3458,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1</v>
@@ -3425,10 +3469,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1</v>
@@ -3436,10 +3480,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1</v>
@@ -3447,10 +3491,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1</v>
@@ -3458,10 +3502,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1</v>
@@ -3469,10 +3513,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1</v>
@@ -3480,10 +3524,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1</v>
@@ -3491,18 +3535,21 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="B34" s="2" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1</v>
@@ -3510,10 +3557,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1</v>
@@ -3521,7 +3568,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="2" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1</v>
@@ -3529,7 +3576,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="2" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1</v>
@@ -3537,10 +3584,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1</v>
@@ -3548,10 +3595,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1</v>
@@ -3559,10 +3606,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1</v>
@@ -3570,10 +3617,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1</v>
@@ -3581,10 +3628,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1</v>
@@ -3592,10 +3639,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1</v>
@@ -3603,10 +3650,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1</v>
@@ -3614,10 +3661,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1</v>
@@ -3625,48 +3672,27 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>554</v>
+        <v>565</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>566</v>
+      </c>
       <c r="B47" s="2" t="s">
-        <v>555</v>
+        <v>567</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F54" activeCellId="0" sqref="F54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="65.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
-  </cols>
-  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3684,7 +3710,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3885,7 +3911,7 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -4480,7 +4506,7 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -4873,8 +4899,8 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5424,7 +5450,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -6363,7 +6389,7 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -6991,7 +7017,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7098,10 +7124,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7403,6 +7429,86 @@
         <v>354</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/Card_Database.xlsx
+++ b/Card_Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Starter" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="576">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1222,48 +1222,51 @@
     <t xml:space="preserve">None</t>
   </si>
   <si>
+    <t xml:space="preserve">Deal 5 damage to defender.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 3 damage to ALL enemies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gremlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply 3 vulnerable to ALL enemies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spectre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 1 HP every time an enemy loses HP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL enemies lose 1 HP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 6 block.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green Ghouls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start combat with 3 copies of this creature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 5 block.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All allies gain 1 strength.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floating Orb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starts combat with 10 block. Block does not expire at the end of turn.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deal 5 damage to roller.</t>
   </si>
   <si>
-    <t xml:space="preserve">Deal 3 damage to ALL enemies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gremlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apply 3 vulnerable to ALL enemies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spectre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain 1 HP every time an enemy loses HP.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL enemies lose 1 HP.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain 6 block.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green Ghouls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start combat with 3 copies of this creature.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain 5 block.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All allies gain 1 strength.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floating Orb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starts combat with 10 block. Block does not expire at the end of turn.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gain 10 block.</t>
   </si>
   <si>
@@ -1372,6 +1375,9 @@
     <t xml:space="preserve">Block does not expire at the end of turn.</t>
   </si>
   <si>
+    <t xml:space="preserve">Gain 4 block. Remove all block, and deal damage to defender equal to block removed.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gain 4 block. Remove all block, and deal damage to a player equal to block removed.</t>
   </si>
   <si>
@@ -1381,7 +1387,10 @@
     <t xml:space="preserve">Boss</t>
   </si>
   <si>
-    <t xml:space="preserve">Gain 1 strength each turn. If this creature has 3 strength, remove all block and deal 5 damage to ALL enemies.</t>
+    <t xml:space="preserve">Each time a die is rolled, gain 1 HP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 1 damage to defender and roll another die.</t>
   </si>
   <si>
     <t xml:space="preserve">The Summoner</t>
@@ -1402,12 +1411,12 @@
     <t xml:space="preserve">Lose all strength on attack. Gain 1 strength each time a card is played.</t>
   </si>
   <si>
-    <t xml:space="preserve">Deal 1 damage to an enemy.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gain 4 strength.</t>
   </si>
   <si>
+    <t xml:space="preserve">Deal 1 damage to defender.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Remove all conditions. Remove block from ALL enemies.</t>
   </si>
   <si>
@@ -1486,7 +1495,7 @@
     <t xml:space="preserve">Anchor</t>
   </si>
   <si>
-    <t xml:space="preserve">Start each combat with 4 block.</t>
+    <t xml:space="preserve">You cannot take damage on the first turn of each combat.</t>
   </si>
   <si>
     <t xml:space="preserve">Orichalcum</t>
@@ -1558,6 +1567,9 @@
     <t xml:space="preserve">Ginger</t>
   </si>
   <si>
+    <t xml:space="preserve">Gain 1 additional treasure from each combat.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ice Cream</t>
   </si>
   <si>
@@ -1672,9 +1684,15 @@
     <t xml:space="preserve">Whenever an enemy dies, gain 1 energy and draw a card.</t>
   </si>
   <si>
+    <t xml:space="preserve">Mummified Hand</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whenever you play a Power, the next card you play costs 0 energy.</t>
   </si>
   <si>
+    <t xml:space="preserve">Singing Bowl</t>
+  </si>
+  <si>
     <t xml:space="preserve">When selecting a card to add to your deck, you can gain 1 max HP instead.</t>
   </si>
   <si>
@@ -1736,6 +1754,12 @@
   </si>
   <si>
     <t xml:space="preserve">Effect of cards that cost X are increased by 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calipers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the start of your turn, lose 5 block rather than all of your block.</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1769,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1786,11 +1810,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -1847,7 +1866,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1892,19 +1911,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2234,8 +2249,8 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2270,22 +2285,22 @@
       <c r="F1" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>392</v>
       </c>
     </row>
@@ -2308,22 +2323,22 @@
       <c r="F2" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>397</v>
       </c>
     </row>
@@ -2346,22 +2361,22 @@
       <c r="F3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="13" t="s">
         <v>399</v>
       </c>
     </row>
@@ -2384,22 +2399,22 @@
       <c r="F4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="13" t="s">
         <v>403</v>
       </c>
     </row>
@@ -2422,22 +2437,22 @@
       <c r="F5" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>407</v>
       </c>
     </row>
@@ -2460,28 +2475,28 @@
       <c r="F6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="J6" s="14" t="s">
+      <c r="G6" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="L6" s="14" t="s">
-        <v>410</v>
+      <c r="L6" s="13" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>394</v>
@@ -2493,33 +2508,33 @@
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="K7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>414</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>394</v>
@@ -2531,33 +2546,33 @@
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>417</v>
+      <c r="G8" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>394</v>
@@ -2569,33 +2584,33 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="L9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>421</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>394</v>
@@ -2607,33 +2622,33 @@
         <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="J10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>425</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>394</v>
@@ -2650,28 +2665,28 @@
       <c r="F11" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="J11" s="14" t="s">
+      <c r="G11" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="13" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>394</v>
@@ -2683,36 +2698,36 @@
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="K12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="H12" s="13" t="s">
         <v>431</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -2721,36 +2736,36 @@
         <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>435</v>
+      <c r="G13" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -2759,36 +2774,36 @@
         <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="I14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="I14" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="J14" s="13" t="s">
         <v>440</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -2802,31 +2817,31 @@
       <c r="F15" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="J15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="H15" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="I15" s="13" t="s">
         <v>443</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -2835,36 +2850,36 @@
         <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>446</v>
+      <c r="G16" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -2873,36 +2888,36 @@
         <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -2916,31 +2931,31 @@
       <c r="F18" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>453</v>
+      <c r="G18" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -2949,61 +2964,67 @@
         <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>458</v>
+      <c r="G19" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+        <v>463</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>40</v>
+      </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3048,10 +3069,10 @@
     </row>
     <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>40</v>
@@ -3059,10 +3080,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>15</v>
@@ -3073,10 +3094,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>10</v>
@@ -3087,10 +3108,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5</v>
@@ -3101,10 +3122,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2</v>
@@ -3112,10 +3133,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2</v>
@@ -3123,10 +3144,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2</v>
@@ -3134,10 +3155,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2</v>
@@ -3145,10 +3166,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2</v>
@@ -3170,10 +3191,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3197,10 +3218,10 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>1</v>
@@ -3208,10 +3229,10 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>1</v>
@@ -3219,10 +3240,10 @@
     </row>
     <row r="4" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>1</v>
@@ -3230,10 +3251,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
@@ -3241,10 +3262,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -3252,10 +3273,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -3263,10 +3284,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -3274,10 +3295,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -3285,10 +3306,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -3296,10 +3317,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -3307,10 +3328,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -3318,10 +3339,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -3329,10 +3350,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -3340,10 +3361,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -3351,7 +3372,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -3359,10 +3383,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -3370,10 +3394,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -3381,10 +3405,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -3392,10 +3416,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1</v>
@@ -3403,10 +3427,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1</v>
@@ -3414,10 +3438,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1</v>
@@ -3425,10 +3449,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1</v>
@@ -3436,10 +3460,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1</v>
@@ -3447,10 +3471,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1</v>
@@ -3458,10 +3482,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1</v>
@@ -3469,10 +3493,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1</v>
@@ -3480,10 +3504,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1</v>
@@ -3491,10 +3515,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1</v>
@@ -3502,10 +3526,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1</v>
@@ -3513,10 +3537,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1</v>
@@ -3524,10 +3548,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1</v>
@@ -3535,10 +3559,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1</v>
@@ -3546,10 +3570,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1</v>
@@ -3557,26 +3581,32 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>550</v>
+      </c>
       <c r="B36" s="2" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>552</v>
+      </c>
       <c r="B37" s="2" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1</v>
@@ -3584,10 +3614,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1</v>
@@ -3595,10 +3625,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1</v>
@@ -3606,10 +3636,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1</v>
@@ -3617,10 +3647,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1</v>
@@ -3628,10 +3658,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1</v>
@@ -3639,10 +3669,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1</v>
@@ -3650,10 +3680,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1</v>
@@ -3661,10 +3691,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1</v>
@@ -3672,10 +3702,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1</v>
@@ -3683,12 +3713,23 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C47" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C48" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7126,7 +7167,7 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -7442,7 +7483,6 @@
       <c r="D16" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="E16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -7454,7 +7494,7 @@
       <c r="C17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>358</v>
       </c>
     </row>

--- a/Card_Database.xlsx
+++ b/Card_Database.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="574">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -124,6 +124,9 @@
     <t xml:space="preserve">Clumsy</t>
   </si>
   <si>
+    <t xml:space="preserve">Old Copies</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quick Strike</t>
   </si>
   <si>
@@ -403,7 +406,7 @@
     <t xml:space="preserve">Decompose</t>
   </si>
   <si>
-    <t xml:space="preserve">Deal damage equal to target’s poison.</t>
+    <t xml:space="preserve">Deal damage equal to target's poison.</t>
   </si>
   <si>
     <t xml:space="preserve">Poison Spray</t>
@@ -478,7 +481,7 @@
     <t xml:space="preserve">Whenever you apply poison, apply 1 additional stack.</t>
   </si>
   <si>
-    <t xml:space="preserve">Snake Venom</t>
+    <t xml:space="preserve">Scorpion Venom</t>
   </si>
   <si>
     <t xml:space="preserve">Every trap also applies 1 poison.</t>
@@ -535,7 +538,7 @@
     <t xml:space="preserve">When attacked, deal 1 damage to attack. This trap does not exhaust.</t>
   </si>
   <si>
-    <t xml:space="preserve">Viper’s Nest</t>
+    <t xml:space="preserve">Viper Nest</t>
   </si>
   <si>
     <t xml:space="preserve">When attacked next, apply 2 poison to attacker.</t>
@@ -796,7 +799,10 @@
     <t xml:space="preserve">Surge</t>
   </si>
   <si>
-    <t xml:space="preserve">Evasive Strike</t>
+    <t xml:space="preserve">Evasive Strikes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each time you play a Strike this turn, gain 1 block.</t>
   </si>
   <si>
     <t xml:space="preserve">Mind Slash</t>
@@ -847,10 +853,7 @@
     <t xml:space="preserve">Confidence</t>
   </si>
   <si>
-    <t xml:space="preserve">When applied, target gains 1 block.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When applied, target gains 3 block.</t>
+    <t xml:space="preserve">When applied, target gains 2 block.</t>
   </si>
   <si>
     <t xml:space="preserve">Humility</t>
@@ -1033,22 +1036,16 @@
     <t xml:space="preserve">Roulette</t>
   </si>
   <si>
-    <t xml:space="preserve">1: Gain 1 relic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2: Gain 1 treasure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3: Gain 2 max HP.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4: Remove a card from your deck.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5: Lose 4 HP.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:Add a curse to your deck.</t>
+    <t xml:space="preserve">Each player rolls a die.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2: Gain 1 relic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/4: Remove a card from your deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/6: Add a curse to your deck.</t>
   </si>
   <si>
     <t xml:space="preserve">Spirit Fire</t>
@@ -1135,19 +1132,22 @@
     <t xml:space="preserve">Draw 3 relics.</t>
   </si>
   <si>
-    <t xml:space="preserve">10 gold: Buy a relic</t>
+    <t xml:space="preserve">-10 gold: Buy a relic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+3 gold: Sell a relic</t>
   </si>
   <si>
     <t xml:space="preserve">Offer gold any number of times.</t>
   </si>
   <si>
-    <t xml:space="preserve">5 gold: +1 treasure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 gold: +2 treasures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 gold: +3 treasures</t>
+    <t xml:space="preserve">-5 gold: +1 treasure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8 gold: +2 treasures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10 gold: +3 treasures</t>
   </si>
   <si>
     <t xml:space="preserve">Trainer</t>
@@ -1156,34 +1156,34 @@
     <t xml:space="preserve">Draw five Character cards from each player’s deck.</t>
   </si>
   <si>
-    <t xml:space="preserve">3 gold: Add a common card to your deck.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 gold: Add uncommon card to your deck.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 gold: Add rare card to your deck.</t>
+    <t xml:space="preserve">-3 gold: Add a common card to your deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5 gold: Add uncommon card to your deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9 gold: Add rare card to your deck.</t>
   </si>
   <si>
     <t xml:space="preserve">Healer</t>
   </si>
   <si>
-    <t xml:space="preserve">1 gold: a player anywhere on the map receives +1 HP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 gold: gain +1 max HP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 gold: resurrect a player at your location with 50\% HP.</t>
+    <t xml:space="preserve">-1 gold: a player anywhere on the map receives +1 HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4 gold: gain +1 max HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10 gold: resurrect a player at your location with 50\% HP.</t>
   </si>
   <si>
     <t xml:space="preserve">Sage</t>
   </si>
   <si>
-    <t xml:space="preserve">4 gold: remove a random card from your deck.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 gold: remove any card from your deck.</t>
+    <t xml:space="preserve">-4 gold: remove a random card from your deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6 gold: remove any card from your deck.</t>
   </si>
   <si>
     <t xml:space="preserve">Max_HP</t>
@@ -1418,12 +1418,6 @@
   </si>
   <si>
     <t xml:space="preserve">Remove all conditions. Remove block from ALL enemies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demon</t>
   </si>
   <si>
     <t xml:space="preserve">Experience</t>
@@ -1866,7 +1860,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1887,20 +1881,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1915,15 +1921,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2006,7 +2016,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -2096,8 +2106,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2105,9 +2115,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="92.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="9" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="22.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="9" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="12" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="12" width="22.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="12" width="19.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2121,42 +2131,45 @@
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="13" t="s">
         <v>298</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>368</v>
@@ -2184,13 +2197,13 @@
       <c r="C4" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="12" t="s">
         <v>376</v>
       </c>
     </row>
@@ -2204,13 +2217,13 @@
       <c r="C5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="12" t="s">
         <v>380</v>
       </c>
     </row>
@@ -2224,10 +2237,10 @@
       <c r="C6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="12" t="s">
         <v>383</v>
       </c>
     </row>
@@ -2247,10 +2260,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2261,8 +2274,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="40.15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="27.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="9" width="22.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="12" width="27.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="12" width="22.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2285,60 +2298,60 @@
       <c r="F1" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="14" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="C2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="n">
+      <c r="C2" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="F2" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="17" t="s">
         <v>397</v>
       </c>
     </row>
@@ -2361,22 +2374,22 @@
       <c r="F3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="18" t="s">
         <v>399</v>
       </c>
     </row>
@@ -2399,60 +2412,60 @@
       <c r="F4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="18" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+    <row r="5" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="C5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="n">
+      <c r="C5" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="F5" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="12" t="s">
+      <c r="F5" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="17" t="s">
         <v>407</v>
       </c>
     </row>
@@ -2475,22 +2488,22 @@
       <c r="F6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="18" t="s">
         <v>411</v>
       </c>
     </row>
@@ -2513,22 +2526,22 @@
       <c r="F7" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="18" t="s">
         <v>415</v>
       </c>
     </row>
@@ -2551,22 +2564,22 @@
       <c r="F8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="18" t="s">
         <v>418</v>
       </c>
     </row>
@@ -2589,22 +2602,22 @@
       <c r="F9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="18" t="s">
         <v>422</v>
       </c>
     </row>
@@ -2627,22 +2640,22 @@
       <c r="F10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="18" t="s">
         <v>426</v>
       </c>
     </row>
@@ -2665,22 +2678,22 @@
       <c r="F11" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="18" t="s">
         <v>406</v>
       </c>
     </row>
@@ -2703,22 +2716,22 @@
       <c r="F12" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="18" t="s">
         <v>432</v>
       </c>
     </row>
@@ -2741,22 +2754,22 @@
       <c r="F13" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="18" t="s">
         <v>436</v>
       </c>
     </row>
@@ -2779,22 +2792,22 @@
       <c r="F14" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="18" t="s">
         <v>441</v>
       </c>
     </row>
@@ -2817,22 +2830,22 @@
       <c r="F15" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="18" t="s">
         <v>444</v>
       </c>
     </row>
@@ -2855,22 +2868,22 @@
       <c r="F16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="18" t="s">
         <v>448</v>
       </c>
     </row>
@@ -2893,23 +2906,23 @@
       <c r="F17" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="L17" s="13" t="s">
-        <v>83</v>
+      <c r="L17" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2931,22 +2944,22 @@
       <c r="F18" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="18" t="s">
         <v>456</v>
       </c>
     </row>
@@ -2969,62 +2982,24 @@
       <c r="F19" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="18" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>40</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3044,7 +3019,7 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -3067,23 +3042,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C2" s="6" t="n">
+    <row r="2" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2" s="16" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>15</v>
@@ -3094,10 +3069,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>10</v>
@@ -3108,10 +3083,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5</v>
@@ -3122,10 +3097,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2</v>
@@ -3133,10 +3108,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2</v>
@@ -3144,10 +3119,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2</v>
@@ -3155,10 +3130,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2</v>
@@ -3166,10 +3141,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2</v>
@@ -3193,8 +3168,8 @@
   </sheetPr>
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3218,10 +3193,10 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>483</v>
+        <v>480</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>481</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>1</v>
@@ -3229,10 +3204,10 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>485</v>
+        <v>482</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>483</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>1</v>
@@ -3240,10 +3215,10 @@
     </row>
     <row r="4" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>487</v>
+        <v>484</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>485</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>1</v>
@@ -3251,10 +3226,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
@@ -3262,10 +3237,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -3273,10 +3248,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -3284,10 +3259,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -3295,10 +3270,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -3306,10 +3281,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -3317,10 +3292,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -3328,10 +3303,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -3339,10 +3314,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -3350,10 +3325,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -3361,10 +3336,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -3372,10 +3347,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -3383,10 +3358,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -3394,10 +3369,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -3405,10 +3380,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -3416,10 +3391,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1</v>
@@ -3427,10 +3402,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1</v>
@@ -3438,10 +3413,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1</v>
@@ -3449,10 +3424,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1</v>
@@ -3460,10 +3435,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1</v>
@@ -3471,10 +3446,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1</v>
@@ -3482,10 +3457,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1</v>
@@ -3493,10 +3468,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1</v>
@@ -3504,10 +3479,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1</v>
@@ -3515,10 +3490,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1</v>
@@ -3526,10 +3501,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1</v>
@@ -3537,10 +3512,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1</v>
@@ -3548,10 +3523,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1</v>
@@ -3559,10 +3534,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1</v>
@@ -3570,10 +3545,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1</v>
@@ -3581,10 +3556,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1</v>
@@ -3592,10 +3567,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1</v>
@@ -3603,10 +3578,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1</v>
@@ -3614,10 +3589,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1</v>
@@ -3625,10 +3600,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1</v>
@@ -3636,10 +3611,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1</v>
@@ -3647,10 +3622,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1</v>
@@ -3658,10 +3633,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1</v>
@@ -3669,10 +3644,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1</v>
@@ -3680,10 +3655,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1</v>
@@ -3691,10 +3666,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1</v>
@@ -3702,10 +3677,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1</v>
@@ -3713,10 +3688,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1</v>
@@ -3724,10 +3699,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1</v>
@@ -3751,7 +3726,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3950,583 +3925,663 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="65.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="65.69"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2" t="n">
+    </row>
+    <row r="4" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2" t="n">
+    </row>
+    <row r="5" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="F5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="6" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="F7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
+    </row>
+    <row r="8" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="G8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="9" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="F9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>49</v>
       </c>
+    </row>
+    <row r="10" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="B10" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="F11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
+    </row>
+    <row r="12" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="F12" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="G12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2" t="n">
+    </row>
+    <row r="13" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="F13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="n">
+    </row>
+    <row r="14" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="F14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2" t="n">
+    </row>
+    <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="F15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="2" t="n">
+    </row>
+    <row r="16" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="F16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2" t="s">
+    </row>
+    <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="F17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" s="2" t="s">
+    </row>
+    <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="F18" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2" t="s">
+    </row>
+    <row r="19" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="B19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="F19" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" s="2" t="s">
+    </row>
+    <row r="20" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="F20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" s="8" t="s">
+    </row>
+    <row r="21" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="B21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2" t="s">
+    </row>
+    <row r="22" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="F22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>77</v>
       </c>
+    </row>
+    <row r="23" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="B23" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2" t="s">
+    </row>
+    <row r="24" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+      <c r="F24" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D26" s="6" t="s">
+    </row>
+    <row r="25" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="B25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="F25" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2" t="s">
+    </row>
+    <row r="26" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="28" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+      <c r="B26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6" t="s">
+    </row>
+    <row r="27" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="B27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" s="2" t="s">
+    </row>
+    <row r="28" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
         <v>89</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4547,13 +4602,13 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="17.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="90.66"/>
@@ -4581,11 +4636,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>90</v>
+      <c r="A3" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>16</v>
@@ -4597,15 +4652,15 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>92</v>
+      <c r="A4" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>8</v>
@@ -4617,15 +4672,15 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>94</v>
+      <c r="A6" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>8</v>
@@ -4637,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4645,7 +4700,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -4656,24 +4711,24 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>97</v>
+      <c r="A11" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>1</v>
@@ -4683,171 +4738,171 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>98</v>
+      <c r="A12" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>100</v>
+      <c r="A13" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>102</v>
+      <c r="A14" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>104</v>
+      <c r="A15" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>106</v>
+      <c r="A16" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>108</v>
+      <c r="A17" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>110</v>
+      <c r="A18" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>112</v>
+      <c r="A19" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
-        <v>114</v>
+      <c r="A22" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4</v>
@@ -4859,15 +4914,15 @@
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>116</v>
+      <c r="A23" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4</v>
@@ -4879,15 +4934,15 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>118</v>
+      <c r="A24" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>8</v>
@@ -4899,15 +4954,15 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>120</v>
+      <c r="A25" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4</v>
@@ -4919,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4938,19 +4993,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="90.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="17.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="90.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4964,513 +5019,591 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>122</v>
+      <c r="A2" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>123</v>
+      <c r="F2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>124</v>
+      <c r="A3" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>125</v>
+      <c r="F3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>126</v>
+      <c r="A4" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>127</v>
+      <c r="F4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>128</v>
+      <c r="A5" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>129</v>
+        <v>46</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>130</v>
+      <c r="A7" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>131</v>
+      <c r="F7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>132</v>
+      <c r="A8" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>133</v>
+      <c r="F8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>134</v>
+      <c r="A9" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="F11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>137</v>
+      <c r="F12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>138</v>
+      <c r="A13" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="n">
+      <c r="F16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>149</v>
+      <c r="E18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>150</v>
+      <c r="A19" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>151</v>
+        <v>32</v>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>152</v>
+      <c r="A20" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>153</v>
+        <v>51</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>154</v>
+      <c r="A23" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="2" t="n">
+      <c r="F24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>160</v>
+      <c r="E25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
-        <v>161</v>
+      <c r="A26" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>172</v>
+        <v>41</v>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -5491,13 +5624,13 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H43" activeCellId="0" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="17.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="90.66"/>
@@ -5518,16 +5651,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>3</v>
@@ -5537,17 +5670,17 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>177</v>
+      <c r="A2" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>178</v>
+      <c r="D2" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -5565,667 +5698,667 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="C3" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="8" t="n">
+      <c r="E3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="8" t="n">
+      <c r="D4" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>184</v>
+      <c r="D5" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="8" t="n">
+      <c r="A7" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>186</v>
+      <c r="E7" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="8" t="n">
+      <c r="A8" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>188</v>
+      <c r="E8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="A9" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>190</v>
+      <c r="F9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="A10" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>192</v>
+      <c r="E10" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8" t="s">
+      <c r="A11" s="10" t="s">
         <v>194</v>
       </c>
+      <c r="B11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="8" t="n">
+      <c r="A13" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>196</v>
+      <c r="E13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="8" t="n">
+      <c r="A14" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>198</v>
+      <c r="E14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="A15" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>200</v>
+      <c r="E15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="A16" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>202</v>
+      <c r="E16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="A17" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8" t="n">
+      <c r="E17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8" t="n">
+      <c r="G17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>204</v>
+      <c r="J17" s="10" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="8" t="n">
+      <c r="A19" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>206</v>
+      <c r="E19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="8" t="s">
+      <c r="A20" s="10" t="s">
         <v>208</v>
       </c>
+      <c r="B20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="A21" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8" t="n">
+      <c r="E21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="I21" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>210</v>
+      <c r="I21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="8" t="n">
+      <c r="A22" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>212</v>
+      <c r="E22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="A23" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>214</v>
+      <c r="E23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="A25" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>216</v>
+      <c r="E25" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
-        <v>217</v>
+      <c r="A26" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2</v>
@@ -6249,21 +6382,21 @@
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
-        <v>219</v>
+      <c r="A27" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>0</v>
@@ -6281,15 +6414,15 @@
         <v>2</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
-        <v>221</v>
+      <c r="A28" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>6</v>
@@ -6313,21 +6446,21 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
-        <v>223</v>
+      <c r="A29" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>0</v>
@@ -6345,21 +6478,21 @@
         <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
-        <v>225</v>
+      <c r="A31" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>0</v>
@@ -6377,21 +6510,21 @@
         <v>1</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
-        <v>227</v>
+      <c r="A32" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>0</v>
@@ -6409,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6428,19 +6561,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="76.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="17.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="76.69"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6454,590 +6587,660 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>230</v>
+      <c r="F2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>232</v>
+      <c r="F3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>234</v>
+      <c r="F4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>236</v>
+      <c r="F5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>238</v>
+      <c r="F6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>240</v>
+      <c r="F7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>242</v>
+      <c r="F8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>244</v>
+      <c r="F9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="F10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6" t="s">
+    </row>
+    <row r="11" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="F11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" s="6" t="s">
+    </row>
+    <row r="12" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>250</v>
+      <c r="F12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>252</v>
+      <c r="F13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="n">
+        <v>254</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>32</v>
+      <c r="F14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2" t="n">
+        <v>255</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="2" t="n">
-        <v>1</v>
+      <c r="F15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>256</v>
+      <c r="F16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>258</v>
+      <c r="F17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>260</v>
+      <c r="F18" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>262</v>
+      <c r="F19" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="6" t="n">
+      <c r="F20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>267</v>
+      <c r="E21" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>269</v>
+      <c r="F22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="2" t="n">
+        <v>272</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>271</v>
+      <c r="E23" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F23" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F24" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F25" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F26" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F27" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
-        <v>281</v>
+      <c r="A29" s="10" t="s">
+        <v>284</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>284</v>
+        <v>51</v>
+      </c>
+      <c r="C29" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -7058,7 +7261,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7073,13 +7276,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -7090,7 +7293,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>4</v>
@@ -7104,7 +7307,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
@@ -7118,7 +7321,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
@@ -7132,7 +7335,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
@@ -7146,7 +7349,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -7167,8 +7370,8 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7176,9 +7379,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="92.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="9" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="22.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="9" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="12" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="12" width="22.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="12" width="19.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -7192,361 +7395,352 @@
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="13" t="s">
         <v>298</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>303</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>307</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="12" t="s">
         <v>312</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="12" t="s">
         <v>315</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>316</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>315</v>
+      <c r="D7" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="12" t="s">
         <v>323</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="12" t="s">
         <v>327</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="12" t="s">
         <v>331</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="D11" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="E11" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="F11" s="12" t="s">
         <v>337</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="12" t="s">
         <v>341</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="12" t="s">
         <v>345</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="12" t="s">
         <v>349</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="12" t="s">
         <v>353</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>355</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>357</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>315</v>
+      <c r="E18" s="12" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>315</v>
+      <c r="E19" s="12" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>315</v>
+      <c r="E20" s="12" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/Card_Database.xlsx
+++ b/Card_Database.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="581">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1219,162 +1219,162 @@
     <t xml:space="preserve">Basic</t>
   </si>
   <si>
+    <t xml:space="preserve">Cannot be poisoned.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 5 damage to defender.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 3 damage to ALL enemies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gremlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enemies cannot gain strength.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defender loses HP equal to their block.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spectre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 1 HP every time an enemy loses HP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL enemies lose 1 HP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green Ghouls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start combat with 3 copies of this creature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 5 block.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All allies gain 1 strength.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floating Orb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starts combat with 10 block. Block does not expire at the end of turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 5 damage to roller.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 10 block.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 1 strength at the start of each turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 1 damage to ALL enemies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mimick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the start of each turn, consume 1 gold from each player.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 2 damage to defender.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goblins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start combat with 2 copies of this creature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove all block from all enemies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Elemental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each player may play a maximum of 4 cards each turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 3 damage to defender. Next turn, this defender cannot gain block.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth Elemental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each turn, the first incoming attack is ignored.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 5 damage to a player. Add 2 dazed to player's discard pile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant Scorpion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 3 block at the start of each turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A player loses 1 HP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a wound to the top of each player's deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creature of the Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first time HP is lost, gain 5 strength.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double current strength.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spider Queen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawns a spider with 5 HP at the start of each turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All spiders deal 2 damage to a player.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawns two spiders with 5 HP each.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All spiders gain 3 HP and 1 strength.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abyssal</t>
+  </si>
+  <si>
     <t xml:space="preserve">None</t>
   </si>
   <si>
-    <t xml:space="preserve">Deal 5 damage to defender.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deal 3 damage to ALL enemies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gremlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apply 3 vulnerable to ALL enemies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spectre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain 1 HP every time an enemy loses HP.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL enemies lose 1 HP.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain 6 block.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green Ghouls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start combat with 3 copies of this creature.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain 5 block.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All allies gain 1 strength.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floating Orb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starts combat with 10 block. Block does not expire at the end of turn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deal 5 damage to roller.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain 10 block.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain 1 strength at the start of each turn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deal 1 damage to ALL enemies.</t>
+    <t xml:space="preserve">Deal 8 damage to a player. Remove all block from player.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 3 damage to a player. Add a wound to the top of each player's deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block does not expire at the end of turn.</t>
   </si>
   <si>
     <t xml:space="preserve">Gain 8 block.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mimick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the start of each turn, consume 1 gold from each player.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain 3 block. Apply 1 vulnerable to ALL enemies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goblins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start combat with 2 copies of this creature.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deal 2 damage to a player.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove all block from all enemies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice Elemental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each player may play a maximum of 4 cards each turn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Damage 5 damage to a player.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Damage 3 damage to a player. Add 2 burns to ALL enemies discard pile.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earth Elemental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deal 5 damage to a player. Add 2 dazed to player's discard pile.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giant Scorpion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain 3 block at the start of each turn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A player loses 1 HP.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add a wound to the top of each player's deck.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creature of the Depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The first time HP is lost, gain 5 strength.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double current strength.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spider Queen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawns a spider with 5 HP at the start of each turn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All spiders deal 2 damage to a player.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawns two spiders with 5 HP each.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All spiders gain 3 HP and 1 strength.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abyssal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deal 8 damage to a player. Remove all block from player.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deal 3 damage to a player. Add a wound to the top of each player's deck.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Block does not expire at the end of turn.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gain 4 block. Remove all block, and deal damage to defender equal to block removed.</t>
   </si>
   <si>
@@ -1411,13 +1411,34 @@
     <t xml:space="preserve">Lose all strength on attack. Gain 1 strength each time a card is played.</t>
   </si>
   <si>
-    <t xml:space="preserve">Gain 4 strength.</t>
+    <t xml:space="preserve">Gain 3 strength.</t>
   </si>
   <si>
     <t xml:space="preserve">Deal 1 damage to defender.</t>
   </si>
   <si>
-    <t xml:space="preserve">Remove all conditions. Remove block from ALL enemies.</t>
+    <t xml:space="preserve">Remove block from ALL enemies. Roll another die.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every time a player dies, heal to full HP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 5 damage to defender and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When 5 strength is reached, deal 10 damage to ALL players and this monster dies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiked Turtle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deals 1 damage to attacked whenever an Attack is played.</t>
   </si>
   <si>
     <t xml:space="preserve">Experience</t>
@@ -1763,12 +1784,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1786,33 +1806,106 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1821,12 +1914,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1834,8 +1969,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1859,13 +2009,64 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1873,31 +2074,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1905,61 +2086,78 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -1971,7 +2169,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1987,7 +2185,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -2016,7 +2214,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -2106,8 +2304,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2115,9 +2313,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="92.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="12" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="12" width="22.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="12" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="8" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="22.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="8" width="19.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2131,22 +2329,22 @@
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="9" t="s">
         <v>299</v>
       </c>
     </row>
@@ -2160,10 +2358,10 @@
       <c r="C2" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>367</v>
       </c>
     </row>
@@ -2197,13 +2395,13 @@
       <c r="C4" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>376</v>
       </c>
     </row>
@@ -2217,13 +2415,13 @@
       <c r="C5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="8" t="s">
         <v>380</v>
       </c>
     </row>
@@ -2237,10 +2435,10 @@
       <c r="C6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="8" t="s">
         <v>383</v>
       </c>
     </row>
@@ -2260,10 +2458,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2272,10 +2470,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="8.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="40.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="53.6"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="12" width="27.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="12" width="22.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="27.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="8" width="22.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2298,60 +2496,60 @@
       <c r="F1" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="10" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="2" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+    <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="C2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="C2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="F2" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="12" t="s">
         <v>397</v>
       </c>
     </row>
@@ -2366,36 +2564,36 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="K3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="L3" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>394</v>
@@ -2407,65 +2605,65 @@
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="K4" s="18" t="s">
+      <c r="G4" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="H4" s="13" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="5" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="I4" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="C5" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="16" t="n">
+      <c r="C5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="F5" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="17" t="s">
+      <c r="F5" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="12" t="s">
         <v>407</v>
       </c>
     </row>
@@ -2480,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>409</v>
@@ -2488,22 +2686,22 @@
       <c r="F6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="13" t="s">
         <v>411</v>
       </c>
     </row>
@@ -2526,28 +2724,28 @@
       <c r="F7" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="K7" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>415</v>
+      <c r="K7" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>394</v>
@@ -2556,36 +2754,36 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>418</v>
+      <c r="H8" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>394</v>
@@ -2597,33 +2795,33 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="L9" s="13" t="s">
         <v>420</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>394</v>
@@ -2632,36 +2830,36 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>426</v>
+      <c r="G10" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>394</v>
@@ -2670,36 +2868,36 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="J11" s="18" t="s">
+      <c r="G11" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="13" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>394</v>
@@ -2711,36 +2909,36 @@
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="K12" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="F12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>431</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>431</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>431</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>431</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>432</v>
+      <c r="L12" s="13" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -2749,36 +2947,36 @@
         <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="J13" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>436</v>
+      <c r="J13" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -2787,36 +2985,36 @@
         <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="F14" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G14" s="18" t="s">
+      <c r="J14" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="L14" s="13" t="s">
         <v>439</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -2825,36 +3023,36 @@
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="J15" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="K15" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="L15" s="13" t="s">
         <v>443</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -2863,27 +3061,27 @@
         <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="F16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="K16" s="18" t="s">
+      <c r="H16" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="13" t="s">
         <v>448</v>
       </c>
     </row>
@@ -2906,22 +3104,22 @@
       <c r="F17" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="L17" s="13" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2939,27 +3137,27 @@
         <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="13" t="s">
         <v>456</v>
       </c>
     </row>
@@ -2982,23 +3180,101 @@
       <c r="F19" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="L19" s="13" t="s">
         <v>461</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -3019,7 +3295,7 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -3042,23 +3318,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="C2" s="16" t="n">
+    <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2" s="6" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>15</v>
@@ -3069,10 +3345,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>10</v>
@@ -3083,10 +3359,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5</v>
@@ -3097,10 +3373,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2</v>
@@ -3108,10 +3384,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2</v>
@@ -3119,10 +3395,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2</v>
@@ -3130,10 +3406,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2</v>
@@ -3141,10 +3417,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2</v>
@@ -3168,7 +3444,7 @@
   </sheetPr>
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -3193,10 +3469,10 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>481</v>
+        <v>487</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>488</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>1</v>
@@ -3204,10 +3480,10 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>483</v>
+        <v>489</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>490</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>1</v>
@@ -3215,10 +3491,10 @@
     </row>
     <row r="4" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>485</v>
+        <v>491</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>1</v>
@@ -3226,10 +3502,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
@@ -3237,10 +3513,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -3248,10 +3524,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -3259,10 +3535,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -3270,10 +3546,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -3281,10 +3557,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -3292,10 +3568,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -3303,10 +3579,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -3314,10 +3590,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -3325,10 +3601,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -3336,10 +3612,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -3347,10 +3623,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -3358,10 +3634,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -3369,10 +3645,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -3380,10 +3656,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -3391,10 +3667,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1</v>
@@ -3402,10 +3678,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1</v>
@@ -3413,10 +3689,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1</v>
@@ -3424,10 +3700,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1</v>
@@ -3435,10 +3711,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1</v>
@@ -3446,10 +3722,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1</v>
@@ -3457,10 +3733,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1</v>
@@ -3468,10 +3744,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1</v>
@@ -3479,10 +3755,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1</v>
@@ -3490,10 +3766,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1</v>
@@ -3501,10 +3777,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1</v>
@@ -3512,10 +3788,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1</v>
@@ -3523,10 +3799,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1</v>
@@ -3534,10 +3810,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1</v>
@@ -3545,10 +3821,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1</v>
@@ -3556,10 +3832,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1</v>
@@ -3567,10 +3843,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1</v>
@@ -3578,10 +3854,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1</v>
@@ -3589,10 +3865,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1</v>
@@ -3600,10 +3876,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1</v>
@@ -3611,10 +3887,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1</v>
@@ -3622,10 +3898,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1</v>
@@ -3633,10 +3909,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1</v>
@@ -3644,10 +3920,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1</v>
@@ -3655,10 +3931,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1</v>
@@ -3666,10 +3942,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1</v>
@@ -3677,10 +3953,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1</v>
@@ -3688,10 +3964,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1</v>
@@ -3699,10 +3975,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1</v>
@@ -3726,7 +4002,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3927,7 +4203,7 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
@@ -3940,647 +4216,647 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8" t="n">
+      <c r="C2" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8" t="n">
+      <c r="C3" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8" t="n">
+      <c r="C4" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8" t="n">
+      <c r="C5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="C6" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="C10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="C11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="C12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8" t="n">
+      <c r="C13" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" s="8" t="n">
+      <c r="C14" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8" t="s">
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" s="8" t="n">
+      <c r="C15" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="F15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" s="8" t="n">
+      <c r="C16" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="F16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8" t="s">
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="C18" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8" t="s">
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="C19" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="F19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="C20" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8" t="s">
+      <c r="F20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="C21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G21" s="8" t="s">
+      <c r="F21" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="C22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8" t="s">
+      <c r="F22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="C23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" s="8" t="s">
+      <c r="F23" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="C24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" s="8" t="s">
+      <c r="F24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="C25" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8" t="s">
+      <c r="F25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D26" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="C26" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="8" t="s">
+      <c r="F26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" s="8" t="s">
+      <c r="C27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="8" t="s">
+      <c r="F27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" s="8" t="s">
+      <c r="C28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G28" s="8" t="s">
+      <c r="F28" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4602,13 +4878,13 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="17.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="90.66"/>
@@ -4636,7 +4912,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4656,7 +4932,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4676,7 +4952,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -4718,7 +4994,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -4738,7 +5014,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -4758,7 +5034,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -4778,7 +5054,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -4798,7 +5074,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4818,7 +5094,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -4838,7 +5114,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -4858,7 +5134,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -4878,7 +5154,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -4898,7 +5174,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -4918,7 +5194,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -4938,7 +5214,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -4958,7 +5234,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -4995,13 +5271,13 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="17.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="90.66"/>
@@ -5032,13 +5308,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="n">
@@ -5055,13 +5331,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="n">
@@ -5078,13 +5354,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="n">
@@ -5101,13 +5377,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="n">
@@ -5124,13 +5400,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="n">
@@ -5147,13 +5423,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="n">
@@ -5170,13 +5446,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="n">
@@ -5193,13 +5469,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="n">
@@ -5216,13 +5492,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="n">
@@ -5239,13 +5515,13 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="n">
@@ -5255,20 +5531,20 @@
         <v>11</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="n">
@@ -5285,13 +5561,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="n">
@@ -5308,13 +5584,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="n">
@@ -5331,13 +5607,13 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="n">
@@ -5354,13 +5630,13 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="n">
@@ -5377,13 +5653,13 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="n">
@@ -5400,13 +5676,13 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D18" s="2" t="n">
@@ -5423,13 +5699,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="C19" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D19" s="2" t="n">
@@ -5446,13 +5722,13 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C20" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="n">
@@ -5469,13 +5745,13 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="8" t="n">
+      <c r="C21" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="n">
@@ -5492,13 +5768,13 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="n">
@@ -5515,13 +5791,13 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="8" t="n">
+      <c r="C23" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D23" s="2" t="n">
@@ -5538,13 +5814,13 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="8" t="n">
+      <c r="C24" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D24" s="2" t="n">
@@ -5560,37 +5836,37 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+    <row r="25" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2" t="n">
+      <c r="C25" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="F25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="5" t="s">
         <v>172</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="8" t="n">
+      <c r="C26" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="n">
@@ -5624,13 +5900,13 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H43" activeCellId="0" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="17.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="90.66"/>
@@ -5670,7 +5946,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>178</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -5679,7 +5955,7 @@
       <c r="C2" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>179</v>
       </c>
       <c r="E2" s="2" t="n">
@@ -5702,659 +5978,659 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="5" t="s">
         <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="E3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="s">
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="5" t="s">
         <v>184</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10" t="s">
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="E7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="10" t="s">
+      <c r="E8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" s="10" t="s">
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10" t="s">
+      <c r="E10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="10" t="s">
+      <c r="E11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="10" t="n">
+      <c r="C13" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="10" t="s">
+      <c r="E13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="10" t="n">
+      <c r="C14" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10" t="s">
+      <c r="E14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="10" t="s">
+      <c r="E15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="10" t="s">
+      <c r="E16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10" t="n">
+      <c r="E17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="10" t="n">
+      <c r="G17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="5" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="10" t="n">
+      <c r="C19" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="10" t="s">
+      <c r="E19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="10" t="s">
+      <c r="E20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10" t="n">
+      <c r="E21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="10" t="s">
+      <c r="I21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="10" t="n">
+      <c r="C22" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="10" t="s">
+      <c r="E22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="10" t="s">
+      <c r="E23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="C25" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="10" t="s">
+      <c r="E25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -6386,7 +6662,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="5" t="s">
         <v>220</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -6418,7 +6694,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="5" t="s">
         <v>222</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -6450,7 +6726,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="5" t="s">
         <v>224</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -6482,7 +6758,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="5" t="s">
         <v>226</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -6514,7 +6790,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="5" t="s">
         <v>228</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -6563,13 +6839,13 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="17.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="76.69"/>
@@ -6600,634 +6876,634 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8" t="n">
+      <c r="C2" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8" t="n">
+      <c r="C3" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8" t="n">
+      <c r="C4" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8" t="n">
+      <c r="C5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="C6" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="C10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="11" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+    <row r="11" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="C11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="12" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+    <row r="12" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="C12" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="F12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8" t="n">
+      <c r="C13" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="F13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" s="8" t="n">
+      <c r="C14" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8" t="s">
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" s="8" t="n">
+      <c r="C15" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="F15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="C16" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="F16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8" t="s">
+      <c r="F17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="C18" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8" t="s">
+      <c r="F18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="C19" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="C20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8" t="s">
+      <c r="F20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="21" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+    <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" s="8" t="n">
+      <c r="C21" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8" t="s">
+      <c r="F21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D22" s="8" t="n">
+      <c r="C22" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F22" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8" t="s">
+      <c r="F22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D23" s="8" t="n">
+      <c r="C23" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F23" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8" t="s">
+      <c r="F23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="C24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F24" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8" t="s">
+      <c r="F24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="C25" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F25" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8" t="s">
+      <c r="F25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D26" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="C26" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F26" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8" t="s">
+      <c r="F26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E27" s="8" t="s">
+      <c r="C27" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F27" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="8" t="s">
+      <c r="F27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" s="8" t="s">
+      <c r="C28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F28" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="8" t="s">
+      <c r="F28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="8" t="n">
+      <c r="C29" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="n">
@@ -7261,7 +7537,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7370,8 +7646,8 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7379,9 +7655,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="92.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="12" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="12" width="22.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="12" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="8" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="22.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="8" width="19.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -7395,22 +7671,22 @@
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="9" t="s">
         <v>299</v>
       </c>
     </row>
@@ -7424,13 +7700,13 @@
       <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="8" t="s">
         <v>304</v>
       </c>
     </row>
@@ -7444,10 +7720,10 @@
       <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="8" t="s">
         <v>308</v>
       </c>
     </row>
@@ -7461,13 +7737,13 @@
       <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7481,10 +7757,10 @@
       <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="8" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7498,10 +7774,10 @@
       <c r="C6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="8" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7515,10 +7791,10 @@
       <c r="C7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="8" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7532,10 +7808,10 @@
       <c r="C8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="8" t="s">
         <v>324</v>
       </c>
     </row>
@@ -7549,10 +7825,10 @@
       <c r="C9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="8" t="s">
         <v>328</v>
       </c>
     </row>
@@ -7566,10 +7842,10 @@
       <c r="C10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="8" t="s">
         <v>332</v>
       </c>
     </row>
@@ -7583,13 +7859,13 @@
       <c r="C11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="8" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7603,13 +7879,13 @@
       <c r="C12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="8" t="s">
         <v>341</v>
       </c>
     </row>
@@ -7623,10 +7899,10 @@
       <c r="C13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="8" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7640,10 +7916,10 @@
       <c r="C14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="8" t="s">
         <v>349</v>
       </c>
     </row>
@@ -7657,10 +7933,10 @@
       <c r="C15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="8" t="s">
         <v>353</v>
       </c>
     </row>
@@ -7674,7 +7950,7 @@
       <c r="C16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="8" t="s">
         <v>355</v>
       </c>
     </row>
@@ -7688,7 +7964,7 @@
       <c r="C17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="8" t="s">
         <v>357</v>
       </c>
     </row>
@@ -7702,10 +7978,10 @@
       <c r="C18" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="8" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7719,10 +7995,10 @@
       <c r="C19" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="8" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7736,10 +8012,10 @@
       <c r="C20" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="8" t="s">
         <v>316</v>
       </c>
     </row>

--- a/Card_Database.xlsx
+++ b/Card_Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Starter" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="596">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -91,39 +91,42 @@
     <t xml:space="preserve">Dazed</t>
   </si>
   <si>
+    <t xml:space="preserve">Unplayable. Remove from deck at the end of your turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unplayable. You cannot play more than 3 cards this turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Injury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parasite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unplayable. You cannot remove this card from your deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unplayable. At the end of your turn, lose 1 HP for each card in your hand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clumsy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unplayable. Exhaust at the end of your turn.</t>
   </si>
   <si>
-    <t xml:space="preserve">Normality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unplayable. You cannot play more than 3 cards this turn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Injury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parasite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unplayable. You cannot remove this card from your deck.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unplayable. At the end of your turn, lose 1 HP for each card in your hand.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clumsy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Old Copies</t>
   </si>
   <si>
@@ -1372,13 +1375,10 @@
     <t xml:space="preserve">Block does not expire at the end of turn.</t>
   </si>
   <si>
-    <t xml:space="preserve">Gain 8 block.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain 4 block. Remove all block, and deal damage to defender equal to block removed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain 4 block. Remove all block, and deal damage to a player equal to block removed.</t>
+    <t xml:space="preserve">Gain 6 block.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain 3 block. Remove all block, and deal damage to defender equal to block removed.</t>
   </si>
   <si>
     <t xml:space="preserve">The Beast</t>
@@ -1390,7 +1390,7 @@
     <t xml:space="preserve">Each time a die is rolled, gain 1 HP.</t>
   </si>
   <si>
-    <t xml:space="preserve">Deal 1 damage to defender and roll another die.</t>
+    <t xml:space="preserve">Deal 1 damage to defender. Roll again.</t>
   </si>
   <si>
     <t xml:space="preserve">The Summoner</t>
@@ -1423,10 +1423,13 @@
     <t xml:space="preserve">Demon</t>
   </si>
   <si>
-    <t xml:space="preserve">Every time a player dies, heal to full HP.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deal 5 damage to defender and </t>
+    <t xml:space="preserve">At the start of each enemy turn, add a dazed to each discard pile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player with lowest HP loses 2 HP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add 1 dazed to each discard pile.</t>
   </si>
   <si>
     <t xml:space="preserve">Exploder</t>
@@ -1438,7 +1441,49 @@
     <t xml:space="preserve">Spiked Turtle</t>
   </si>
   <si>
-    <t xml:space="preserve">Deals 1 damage to attacked whenever an Attack is played.</t>
+    <t xml:space="preserve">Whenever an Attack is played, deal 1 damage to attacker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 2 damage. Gain health equal to damage dealt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ember</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the start of each enemy turn, exhaust the top card of their deck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal damage equal to die roll.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxic Chamber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All enemies enter combat with X poison, where X is the stage you are on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do nothing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Slime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once this creature drops below 50\% health, the next turn it splits into two identical copies with its current health.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 6 damage to a player. Add 2 dazed to player's discard pile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 4 damage to ALL enemies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Executioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each attack deals 1 additional damage for each attack against defender this turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal 1 damage. Gain 1 HP for each unblocked damage.</t>
   </si>
   <si>
     <t xml:space="preserve">Experience</t>
@@ -1784,11 +1829,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1806,106 +1852,41 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1914,54 +1895,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1969,23 +1908,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2009,64 +1933,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2074,11 +1947,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2086,78 +1959,69 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -2169,7 +2033,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -2185,7 +2049,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -2214,7 +2078,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -2304,7 +2168,7 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -2330,116 +2194,116 @@
         <v>4</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -2458,10 +2322,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2470,7 +2334,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="8.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="53.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="53.6"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="27.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="8" width="22.09"/>
@@ -2488,39 +2352,39 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>1</v>
@@ -2528,37 +2392,37 @@
       <c r="D2" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>395</v>
+      <c r="E2" s="12" t="s">
+        <v>396</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>397</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
@@ -2566,37 +2430,37 @@
       <c r="D3" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>399</v>
+      <c r="E3" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>35</v>
+      <c r="G3" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
@@ -2604,37 +2468,37 @@
       <c r="D4" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>402</v>
+      <c r="E4" s="8" t="s">
+        <v>403</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>403</v>
+      <c r="G4" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="5" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>1</v>
@@ -2642,37 +2506,37 @@
       <c r="D5" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>405</v>
+      <c r="E5" s="12" t="s">
+        <v>406</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="L5" s="12" t="s">
+      <c r="G5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>407</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -2680,37 +2544,37 @@
       <c r="D6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>409</v>
+      <c r="E6" s="8" t="s">
+        <v>410</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="L6" s="13" t="s">
+      <c r="G6" s="14" t="s">
         <v>411</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -2718,37 +2582,37 @@
       <c r="D7" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>413</v>
+      <c r="E7" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>414</v>
+      <c r="G7" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -2756,37 +2620,37 @@
       <c r="D8" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>416</v>
+      <c r="E8" s="8" t="s">
+        <v>417</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="J8" s="13" t="s">
+      <c r="G8" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -2794,37 +2658,37 @@
       <c r="D9" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>419</v>
+      <c r="E9" s="8" t="s">
+        <v>420</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>420</v>
+      <c r="G9" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -2832,37 +2696,37 @@
       <c r="D10" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>422</v>
+      <c r="E10" s="8" t="s">
+        <v>423</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>423</v>
+      <c r="G10" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -2870,37 +2734,37 @@
       <c r="D11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>425</v>
+      <c r="E11" s="8" t="s">
+        <v>426</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>406</v>
+      <c r="G11" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -2908,37 +2772,37 @@
       <c r="D12" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>428</v>
+      <c r="E12" s="8" t="s">
+        <v>429</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="K12" s="13" t="s">
+      <c r="G12" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="H12" s="14" t="s">
         <v>430</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -2946,37 +2810,37 @@
       <c r="D13" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>433</v>
+      <c r="E13" s="8" t="s">
+        <v>434</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>434</v>
+      <c r="G13" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -2984,37 +2848,37 @@
       <c r="D14" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>436</v>
+      <c r="E14" s="8" t="s">
+        <v>437</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="I14" s="13" t="s">
+      <c r="G14" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="H14" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="I14" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="J14" s="14" t="s">
         <v>439</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -3022,37 +2886,37 @@
       <c r="D15" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>441</v>
+      <c r="E15" s="8" t="s">
+        <v>442</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="J15" s="13" t="s">
+      <c r="G15" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="H15" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="I15" s="14" t="s">
         <v>443</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -3060,28 +2924,28 @@
       <c r="D16" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>445</v>
+      <c r="E16" s="8" t="s">
+        <v>446</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="K16" s="13" t="s">
+      <c r="G16" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="H16" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="L16" s="14" t="s">
         <v>448</v>
       </c>
     </row>
@@ -3098,29 +2962,29 @@
       <c r="D17" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="8" t="s">
         <v>451</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="J17" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>84</v>
+      <c r="J17" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3136,28 +3000,28 @@
       <c r="D18" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>441</v>
+      <c r="E18" s="8" t="s">
+        <v>442</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="14" t="s">
         <v>456</v>
       </c>
     </row>
@@ -3174,28 +3038,28 @@
       <c r="D19" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="8" t="s">
         <v>458</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="14" t="s">
         <v>461</v>
       </c>
     </row>
@@ -3204,7 +3068,7 @@
         <v>462</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1</v>
@@ -3212,7 +3076,7 @@
       <c r="D20" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="8" t="s">
         <v>463</v>
       </c>
       <c r="F20" s="2" t="n">
@@ -3221,13 +3085,28 @@
       <c r="G20" s="8" t="s">
         <v>464</v>
       </c>
+      <c r="H20" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>465</v>
+      <c r="A21" s="15" t="s">
+        <v>466</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1</v>
@@ -3235,37 +3114,37 @@
       <c r="D21" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>466</v>
+      <c r="E21" s="8" t="s">
+        <v>467</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>467</v>
+      <c r="A22" s="15" t="s">
+        <v>468</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1</v>
@@ -3273,8 +3152,181 @@
       <c r="D22" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>468</v>
+      <c r="E22" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -3295,7 +3347,7 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -3320,10 +3372,10 @@
     </row>
     <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>40</v>
@@ -3331,10 +3383,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>15</v>
@@ -3345,10 +3397,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>10</v>
@@ -3359,10 +3411,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5</v>
@@ -3373,10 +3425,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2</v>
@@ -3384,10 +3436,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2</v>
@@ -3395,10 +3447,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2</v>
@@ -3406,10 +3458,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2</v>
@@ -3417,10 +3469,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2</v>
@@ -3444,7 +3496,7 @@
   </sheetPr>
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -3469,10 +3521,10 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>1</v>
@@ -3480,10 +3532,10 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>1</v>
@@ -3491,10 +3543,10 @@
     </row>
     <row r="4" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>1</v>
@@ -3502,10 +3554,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
@@ -3513,10 +3565,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
@@ -3524,10 +3576,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -3535,10 +3587,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
@@ -3546,10 +3598,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
@@ -3557,10 +3609,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
@@ -3568,10 +3620,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
@@ -3579,10 +3631,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
@@ -3590,10 +3642,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -3601,10 +3653,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
@@ -3612,10 +3664,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
@@ -3623,10 +3675,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
@@ -3634,10 +3686,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
@@ -3645,10 +3697,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
@@ -3656,10 +3708,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1</v>
@@ -3667,10 +3719,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1</v>
@@ -3678,10 +3730,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1</v>
@@ -3689,10 +3741,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1</v>
@@ -3700,10 +3752,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1</v>
@@ -3711,10 +3763,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1</v>
@@ -3722,10 +3774,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1</v>
@@ -3733,10 +3785,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1</v>
@@ -3744,10 +3796,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1</v>
@@ -3755,10 +3807,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1</v>
@@ -3766,10 +3818,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1</v>
@@ -3777,10 +3829,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1</v>
@@ -3788,10 +3840,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1</v>
@@ -3799,10 +3851,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1</v>
@@ -3810,10 +3862,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1</v>
@@ -3821,10 +3873,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1</v>
@@ -3832,10 +3884,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1</v>
@@ -3843,10 +3895,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1</v>
@@ -3854,10 +3906,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1</v>
@@ -3865,10 +3917,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1</v>
@@ -3876,10 +3928,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1</v>
@@ -3887,10 +3939,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1</v>
@@ -3898,10 +3950,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1</v>
@@ -3909,10 +3961,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1</v>
@@ -3920,10 +3972,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1</v>
@@ -3931,10 +3983,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1</v>
@@ -3942,10 +3994,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1</v>
@@ -3953,10 +4005,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1</v>
@@ -3964,10 +4016,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1</v>
@@ -3975,10 +4027,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1</v>
@@ -4002,8 +4054,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4182,7 +4234,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4203,7 +4255,7 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
@@ -4227,7 +4279,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -4241,10 +4293,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>4</v>
@@ -4259,15 +4311,15 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>4</v>
@@ -4282,15 +4334,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>4</v>
@@ -4305,15 +4357,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>4</v>
@@ -4328,15 +4380,15 @@
         <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>2</v>
@@ -4351,15 +4403,15 @@
         <v>2</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>2</v>
@@ -4374,15 +4426,15 @@
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>2</v>
@@ -4394,18 +4446,18 @@
         <v>8</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>2</v>
@@ -4420,15 +4472,15 @@
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>1</v>
@@ -4443,15 +4495,15 @@
         <v>2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>1</v>
@@ -4466,15 +4518,15 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>1</v>
@@ -4489,15 +4541,15 @@
         <v>3</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>4</v>
@@ -4512,15 +4564,15 @@
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>4</v>
@@ -4535,15 +4587,15 @@
         <v>0</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>4</v>
@@ -4558,15 +4610,15 @@
         <v>1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>4</v>
@@ -4581,15 +4633,15 @@
         <v>1</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>2</v>
@@ -4604,15 +4656,15 @@
         <v>0</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>2</v>
@@ -4627,15 +4679,15 @@
         <v>0</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>2</v>
@@ -4644,21 +4696,21 @@
         <v>4</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>2</v>
@@ -4673,15 +4725,15 @@
         <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>1</v>
@@ -4690,21 +4742,21 @@
         <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>1</v>
@@ -4719,15 +4771,15 @@
         <v>0</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="5" t="n">
         <v>1</v>
@@ -4736,21 +4788,21 @@
         <v>2</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="5" t="n">
         <v>1</v>
@@ -4765,15 +4817,15 @@
         <v>2</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="5" t="n">
         <v>2</v>
@@ -4782,21 +4834,21 @@
         <v>4</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="5" t="n">
         <v>2</v>
@@ -4805,21 +4857,21 @@
         <v>4</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>1</v>
@@ -4828,21 +4880,21 @@
         <v>2</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" s="5" t="n">
         <v>1</v>
@@ -4851,13 +4903,13 @@
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4878,7 +4930,7 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -4913,10 +4965,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>16</v>
@@ -4928,15 +4980,15 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>8</v>
@@ -4948,15 +5000,15 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>8</v>
@@ -4968,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4976,7 +5028,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -4987,7 +5039,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>1</v>
@@ -4995,16 +5047,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>1</v>
@@ -5015,170 +5067,170 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4</v>
@@ -5190,15 +5242,15 @@
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4</v>
@@ -5210,15 +5262,15 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>8</v>
@@ -5230,15 +5282,15 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4</v>
@@ -5250,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -5271,7 +5323,7 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -5295,7 +5347,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -5309,10 +5361,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>4</v>
@@ -5327,15 +5379,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>2</v>
@@ -5350,15 +5402,15 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>4</v>
@@ -5373,15 +5425,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>1</v>
@@ -5393,18 +5445,18 @@
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>2</v>
@@ -5419,15 +5471,15 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>4</v>
@@ -5442,15 +5494,15 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>4</v>
@@ -5465,15 +5517,15 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>2</v>
@@ -5488,15 +5540,15 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>1</v>
@@ -5511,15 +5563,15 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>4</v>
@@ -5534,15 +5586,15 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>2</v>
@@ -5557,15 +5609,15 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>2</v>
@@ -5574,21 +5626,21 @@
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>2</v>
@@ -5597,21 +5649,21 @@
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>2</v>
@@ -5620,21 +5672,21 @@
         <v>4</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>2</v>
@@ -5649,15 +5701,15 @@
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>1</v>
@@ -5672,15 +5724,15 @@
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>4</v>
@@ -5689,21 +5741,21 @@
         <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>4</v>
@@ -5712,21 +5764,21 @@
         <v>8</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>1</v>
@@ -5735,21 +5787,21 @@
         <v>2</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>2</v>
@@ -5758,21 +5810,21 @@
         <v>4</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>1</v>
@@ -5781,21 +5833,21 @@
         <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="5" t="n">
         <v>2</v>
@@ -5804,21 +5856,21 @@
         <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="5" t="n">
         <v>4</v>
@@ -5827,21 +5879,21 @@
         <v>8</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>4</v>
@@ -5850,21 +5902,21 @@
         <v>8</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="5" t="n">
         <v>2</v>
@@ -5873,13 +5925,13 @@
         <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5900,7 +5952,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H43" activeCellId="0" sqref="H43"/>
     </sheetView>
   </sheetViews>
@@ -5927,16 +5979,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>3</v>
@@ -5947,16 +5999,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -5974,21 +6026,21 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>0</v>
@@ -6006,21 +6058,21 @@
         <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0</v>
@@ -6038,21 +6090,21 @@
         <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
@@ -6070,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6086,10 +6138,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>6</v>
@@ -6113,15 +6165,15 @@
         <v>1</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>6</v>
@@ -6145,15 +6197,15 @@
         <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>2</v>
@@ -6177,15 +6229,15 @@
         <v>2</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>4</v>
@@ -6209,21 +6261,21 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>1</v>
@@ -6241,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6257,10 +6309,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>6</v>
@@ -6284,15 +6336,15 @@
         <v>1</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>6</v>
@@ -6316,15 +6368,15 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>4</v>
@@ -6348,15 +6400,15 @@
         <v>1</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>4</v>
@@ -6380,15 +6432,15 @@
         <v>1</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>2</v>
@@ -6412,7 +6464,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6428,10 +6480,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>6</v>
@@ -6452,24 +6504,24 @@
         <v>1</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
@@ -6487,15 +6539,15 @@
         <v>1</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>2</v>
@@ -6519,15 +6571,15 @@
         <v>1</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>6</v>
@@ -6551,15 +6603,15 @@
         <v>1</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="5" t="n">
         <v>4</v>
@@ -6583,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6599,10 +6651,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="5" t="n">
         <v>4</v>
@@ -6626,15 +6678,15 @@
         <v>1</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2</v>
@@ -6658,21 +6710,21 @@
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>0</v>
@@ -6690,15 +6742,15 @@
         <v>2</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>6</v>
@@ -6722,21 +6774,21 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>0</v>
@@ -6754,21 +6806,21 @@
         <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>0</v>
@@ -6786,21 +6838,21 @@
         <v>1</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>0</v>
@@ -6818,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6839,7 +6891,7 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -6863,7 +6915,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -6877,10 +6929,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>4</v>
@@ -6895,15 +6947,15 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>4</v>
@@ -6918,15 +6970,15 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>4</v>
@@ -6941,15 +6993,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>4</v>
@@ -6964,15 +7016,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>2</v>
@@ -6987,15 +7039,15 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>2</v>
@@ -7010,15 +7062,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>1</v>
@@ -7033,15 +7085,15 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>1</v>
@@ -7056,15 +7108,15 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>1</v>
@@ -7079,15 +7131,15 @@
         <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>1</v>
@@ -7102,15 +7154,15 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>4</v>
@@ -7125,15 +7177,15 @@
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>4</v>
@@ -7148,15 +7200,15 @@
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>4</v>
@@ -7171,15 +7223,15 @@
         <v>0</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>4</v>
@@ -7194,15 +7246,15 @@
         <v>1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>2</v>
@@ -7217,15 +7269,15 @@
         <v>1</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>2</v>
@@ -7240,15 +7292,15 @@
         <v>1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>2</v>
@@ -7263,15 +7315,15 @@
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>2</v>
@@ -7286,15 +7338,15 @@
         <v>0</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>1</v>
@@ -7309,15 +7361,15 @@
         <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>4</v>
@@ -7326,21 +7378,21 @@
         <v>8</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>4</v>
@@ -7349,21 +7401,21 @@
         <v>8</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="5" t="n">
         <v>4</v>
@@ -7372,21 +7424,21 @@
         <v>8</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="5" t="n">
         <v>2</v>
@@ -7395,21 +7447,21 @@
         <v>4</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="5" t="n">
         <v>2</v>
@@ -7418,21 +7470,21 @@
         <v>4</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="5" t="n">
         <v>2</v>
@@ -7441,21 +7493,21 @@
         <v>4</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>2</v>
@@ -7464,21 +7516,21 @@
         <v>4</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" s="5" t="n">
         <v>1</v>
@@ -7487,21 +7539,21 @@
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="5" t="n">
         <v>1</v>
@@ -7510,13 +7562,13 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -7537,7 +7589,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7552,13 +7604,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -7569,7 +7621,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>4</v>
@@ -7583,7 +7635,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
@@ -7597,7 +7649,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
@@ -7611,7 +7663,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
@@ -7625,7 +7677,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -7646,7 +7698,7 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -7672,351 +7724,351 @@
         <v>4</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
